--- a/outputs-HGR-r202-archive/f__Burkholderiaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Burkholderiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,441 +1009,441 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12991.fa</t>
+          <t>even_MAG-GUT13480.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001521645052668614</v>
+        <v>0.0001307832425559482</v>
       </c>
       <c r="C12" t="n">
-        <v>1.16058237083108e-05</v>
+        <v>1.764229168173299e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>7.509194988759456e-08</v>
+        <v>0.007615872850305508</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9937842587644963</v>
+        <v>2.220062961497933e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003072743843362108</v>
+        <v>1.624281632401964e-12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002912445808347766</v>
+        <v>0.0002072958803069725</v>
       </c>
       <c r="H12" t="n">
-        <v>1.109937500057293e-06</v>
+        <v>0.0005363981955194035</v>
       </c>
       <c r="I12" t="n">
-        <v>1.412057794006992e-06</v>
+        <v>2.828223581708717e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005450854826400219</v>
+        <v>0.9914636841470397</v>
       </c>
       <c r="K12" t="n">
-        <v>2.771331158794149e-11</v>
+        <v>4.115512710328909e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9937842587644963</v>
+        <v>0.9914636841470397</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13170.fa</t>
+          <t>even_MAG-GUT13816.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0002210108865279995</v>
+        <v>0.0001737165369484629</v>
       </c>
       <c r="C13" t="n">
-        <v>3.799708578451323e-06</v>
+        <v>7.772677174383972e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>1.251092658850669e-08</v>
+        <v>0.00677353721190743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9956549706867173</v>
+        <v>3.198501161102645e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001543903556304597</v>
+        <v>2.652508282193745e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003408734799470101</v>
+        <v>0.0005858429463128521</v>
       </c>
       <c r="H13" t="n">
-        <v>2.821143178948546e-07</v>
+        <v>0.0003641911198278897</v>
       </c>
       <c r="I13" t="n">
-        <v>3.141253847942146e-05</v>
+        <v>6.147380701511937e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002203734453909091</v>
+        <v>0.9920887576003771</v>
       </c>
       <c r="K13" t="n">
-        <v>6.429181353108769e-11</v>
+        <v>8.001635533218773e-09</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9956549706867173</v>
+        <v>0.9920887576003771</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13480.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001307832425559482</v>
+        <v>0.0001185207278339768</v>
       </c>
       <c r="C14" t="n">
-        <v>1.764229168173299e-05</v>
+        <v>2.818291114129223e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007615872850305508</v>
+        <v>1.068416038317613e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220062961497933e-14</v>
+        <v>0.9891025033549198</v>
       </c>
       <c r="F14" t="n">
-        <v>1.624281632401964e-12</v>
+        <v>0.0003529443574034283</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002072958803069725</v>
+        <v>0.0002142491577054802</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005363981955194035</v>
+        <v>1.445234717212425e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>2.828223581708717e-05</v>
+        <v>1.077776235732713e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9914636841470397</v>
+        <v>0.01019803106342237</v>
       </c>
       <c r="K14" t="n">
-        <v>4.115512710328909e-08</v>
+        <v>7.76115717139404e-11</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9914636841470397</v>
+        <v>0.9891025033549198</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13637.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001404982367018067</v>
+        <v>0.0006561644738760995</v>
       </c>
       <c r="C15" t="n">
-        <v>8.273465290105956e-06</v>
+        <v>0.0001045131380669854</v>
       </c>
       <c r="D15" t="n">
-        <v>1.037460178167187e-07</v>
+        <v>2.208992179787912e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9941452299659322</v>
+        <v>2.219957797777162e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>4.79113134273585e-05</v>
+        <v>2.219957797777162e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004034899683141907</v>
+        <v>0.0001484811086675914</v>
       </c>
       <c r="H15" t="n">
-        <v>6.540836665088565e-07</v>
+        <v>0.9795509711008343</v>
       </c>
       <c r="I15" t="n">
-        <v>6.362442572032702e-06</v>
+        <v>1.212986991698372e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005247476608644653</v>
+        <v>0.01951626517648171</v>
       </c>
       <c r="K15" t="n">
-        <v>1.694334644744025e-10</v>
+        <v>3.020932391840772e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9941452299659322</v>
+        <v>0.9795509711008343</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13816.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001737165369484629</v>
+        <v>0.000167570992529845</v>
       </c>
       <c r="C16" t="n">
-        <v>7.772677174383972e-06</v>
+        <v>1.012374273065033e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00677353721190743</v>
+        <v>1.672596251258959e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>3.198501161102645e-14</v>
+        <v>0.9918792591828781</v>
       </c>
       <c r="F16" t="n">
-        <v>2.652508282193745e-08</v>
+        <v>0.0002263410498704389</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005858429463128521</v>
+        <v>0.0002759029716321846</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003641911198278897</v>
+        <v>1.22782556135945e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>6.147380701511937e-06</v>
+        <v>3.096328325242358e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9920887576003771</v>
+        <v>0.0074364611253578</v>
       </c>
       <c r="K16" t="n">
-        <v>8.001635533218773e-09</v>
+        <v>5.515199147603382e-11</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9920887576003771</v>
+        <v>0.9918792591828781</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13881.fa</t>
+          <t>even_MAG-GUT14172.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0001185207278339768</v>
+        <v>0.000194910205814256</v>
       </c>
       <c r="C17" t="n">
-        <v>2.818291114129223e-06</v>
+        <v>2.336350664283123e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>1.068416038317613e-08</v>
+        <v>0.003529129872535489</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9891025033549198</v>
+        <v>2.220400550701574e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0003529443574034283</v>
+        <v>2.975558764260006e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002142491577054802</v>
+        <v>0.0002040671548481178</v>
       </c>
       <c r="H17" t="n">
-        <v>1.445234717212425e-07</v>
+        <v>0.003177499416640403</v>
       </c>
       <c r="I17" t="n">
-        <v>1.077776235732713e-05</v>
+        <v>8.890368866100321e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01019803106342237</v>
+        <v>0.9928620798457592</v>
       </c>
       <c r="K17" t="n">
-        <v>7.76115717139404e-11</v>
+        <v>5.962589584996806e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9891025033549198</v>
+        <v>0.9928620798457592</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13955.fa</t>
+          <t>even_MAG-GUT14572.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0006561644738760995</v>
+        <v>0.0002376807259349101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001045131380669854</v>
+        <v>2.329106124322252e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>2.208992179787912e-05</v>
+        <v>0.003103619563729406</v>
       </c>
       <c r="E18" t="n">
-        <v>2.219957797777162e-14</v>
+        <v>2.426846760184747e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.219957797777162e-14</v>
+        <v>8.774836951671855e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001484811086675914</v>
+        <v>0.0005653352074521049</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9795509711008343</v>
+        <v>0.001147661852934937</v>
       </c>
       <c r="I18" t="n">
-        <v>1.212986991698372e-06</v>
+        <v>7.472084027420491e-07</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01951626517648171</v>
+        <v>0.994920785291189</v>
       </c>
       <c r="K18" t="n">
-        <v>3.020932391840772e-07</v>
+        <v>1.605394375297428e-09</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9795509711008343</v>
+        <v>0.994920785291189</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14050.fa</t>
+          <t>even_MAG-GUT14827.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000167570992529845</v>
+        <v>0.000830396302468966</v>
       </c>
       <c r="C19" t="n">
-        <v>1.012374273065033e-05</v>
+        <v>0.000126348756717341</v>
       </c>
       <c r="D19" t="n">
-        <v>1.672596251258959e-08</v>
+        <v>7.202014480318911e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9918792591828781</v>
+        <v>2.219966251378013e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0002263410498704389</v>
+        <v>2.219966251378013e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002759029716321846</v>
+        <v>4.054911818324736e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.22782556135945e-06</v>
+        <v>0.9855436400738075</v>
       </c>
       <c r="I19" t="n">
-        <v>3.096328325242358e-06</v>
+        <v>7.060459044825413e-07</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0074364611253578</v>
+        <v>0.01338559271213534</v>
       </c>
       <c r="K19" t="n">
-        <v>5.515199147603382e-11</v>
+        <v>7.468459355017677e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9918792591828781</v>
+        <v>0.9855436400738075</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14125.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0001404982367018067</v>
+        <v>0.0003177899163471371</v>
       </c>
       <c r="C20" t="n">
-        <v>8.273465290105956e-06</v>
+        <v>8.251901075908693e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>1.037460178167187e-07</v>
+        <v>5.105853771219268e-08</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9941452299659322</v>
+        <v>0.9951307525462207</v>
       </c>
       <c r="F20" t="n">
-        <v>4.79113134273585e-05</v>
+        <v>0.0001133368888445665</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004034899683141907</v>
+        <v>0.0003525069242487491</v>
       </c>
       <c r="H20" t="n">
-        <v>6.540836665088565e-07</v>
+        <v>3.501024216607374e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>6.362442572032702e-06</v>
+        <v>1.194031884447102e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005247476608644653</v>
+        <v>0.004061868678039486</v>
       </c>
       <c r="K20" t="n">
-        <v>1.694334644744025e-10</v>
+        <v>7.436246369452611e-10</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9941452299659322</v>
+        <v>0.9951307525462207</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1459,41 +1459,41 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14172.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000194910205814256</v>
+        <v>0.002233576917658169</v>
       </c>
       <c r="C21" t="n">
-        <v>2.336350664283123e-05</v>
+        <v>1.456961996029078e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003529129872535489</v>
+        <v>0.02900354920589172</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220400550701574e-14</v>
+        <v>5.313766632360164e-13</v>
       </c>
       <c r="F21" t="n">
-        <v>2.975558764260006e-12</v>
+        <v>7.555460351791222e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002040671548481178</v>
+        <v>0.002681436230917024</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003177499416640403</v>
+        <v>3.910715187623369e-05</v>
       </c>
       <c r="I21" t="n">
-        <v>8.890368866100321e-06</v>
+        <v>0.004750684452799313</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9928620798457592</v>
+        <v>0.9612691435992035</v>
       </c>
       <c r="K21" t="n">
-        <v>5.962589584996806e-08</v>
+        <v>3.773608107787267e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9928620798457592</v>
+        <v>0.9612691435992035</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1509,141 +1509,141 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT16625.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.475235332396014e-05</v>
+        <v>0.0001389475673056139</v>
       </c>
       <c r="C22" t="n">
-        <v>2.116851190117049e-06</v>
+        <v>5.40949622751399e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>5.580804126896911e-08</v>
+        <v>0.9895370405913866</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9857909675776303</v>
+        <v>2.220021222222346e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>4.652064072470381e-05</v>
+        <v>2.063416647304697e-09</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000123308171517096</v>
+        <v>0.0004286662786224682</v>
       </c>
       <c r="H22" t="n">
-        <v>2.430952814336982e-07</v>
+        <v>8.091142899377581e-07</v>
       </c>
       <c r="I22" t="n">
-        <v>6.06021931133879e-06</v>
+        <v>3.562893073806322e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01393597522171079</v>
+        <v>0.009885541642955357</v>
       </c>
       <c r="K22" t="n">
-        <v>6.126895138508394e-11</v>
+        <v>2.035269992659528e-08</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9857909675776303</v>
+        <v>0.9895370405913866</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14532.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001083708097484463</v>
+        <v>6.553580352837005e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>8.253403736331524e-06</v>
+        <v>3.21607093555604e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>1.509577860212846e-08</v>
+        <v>0.02206050702522888</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9871216172613307</v>
+        <v>2.219976753351817e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0001962744863730741</v>
+        <v>1.820963561151837e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002131613702841892</v>
+        <v>0.0001283867027024317</v>
       </c>
       <c r="H23" t="n">
-        <v>5.276750275421219e-07</v>
+        <v>0.000139189068130665</v>
       </c>
       <c r="I23" t="n">
-        <v>2.116081077366005e-06</v>
+        <v>2.619249116581446e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01234966377944368</v>
+        <v>0.9775769438429684</v>
       </c>
       <c r="K23" t="n">
-        <v>3.720004652923607e-11</v>
+        <v>2.899349658780156e-08</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9871216172613307</v>
+        <v>0.9775769438429684</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14572.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0002376807259349101</v>
+        <v>0.0003579269380811301</v>
       </c>
       <c r="C24" t="n">
-        <v>2.329106124322252e-05</v>
+        <v>2.769013461170675e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003103619563729406</v>
+        <v>0.01251621639764564</v>
       </c>
       <c r="E24" t="n">
-        <v>2.426846760184747e-14</v>
+        <v>2.220148838463831e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>8.774836951671855e-07</v>
+        <v>1.438838032534095e-12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005653352074521049</v>
+        <v>0.0001105467854331695</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001147661852934937</v>
+        <v>0.002375781107482309</v>
       </c>
       <c r="I24" t="n">
-        <v>7.472084027420491e-07</v>
+        <v>8.409418022613617e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.994920785291189</v>
+        <v>0.9846031130475017</v>
       </c>
       <c r="K24" t="n">
-        <v>1.605394375297428e-09</v>
+        <v>3.161697606806087e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.994920785291189</v>
+        <v>0.9846031130475017</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1659,91 +1659,91 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14827.fa</t>
+          <t>even_MAG-GUT17598.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000830396302468966</v>
+        <v>0.001082637572217331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000126348756717341</v>
+        <v>0.9971215564663648</v>
       </c>
       <c r="D25" t="n">
-        <v>7.202014480318911e-05</v>
+        <v>0.0006889174719696742</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219966251378013e-14</v>
+        <v>2.220046028431699e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219966251378013e-14</v>
+        <v>2.220046028431699e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>4.054911818324736e-05</v>
+        <v>0.0008655482363832067</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9855436400738075</v>
+        <v>6.239342035004872e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>7.060459044825413e-07</v>
+        <v>4.303765874981109e-07</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01338559271213534</v>
+        <v>0.0002345262766084524</v>
       </c>
       <c r="K25" t="n">
-        <v>7.468459355017677e-07</v>
+        <v>1.442577897382946e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9855436400738075</v>
+        <v>0.9971215564663648</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__CAG-521</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__CAG-521</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15246.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0003177899163471371</v>
+        <v>0.000120492352955261</v>
       </c>
       <c r="C26" t="n">
-        <v>8.251901075908693e-06</v>
+        <v>1.020248268069469e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>5.105853771219268e-08</v>
+        <v>9.547131950677268e-08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9951307525462207</v>
+        <v>0.9889167252136282</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001133368888445665</v>
+        <v>2.667588362417728e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003525069242487491</v>
+        <v>0.0002127416281780147</v>
       </c>
       <c r="H26" t="n">
-        <v>3.501024216607374e-06</v>
+        <v>2.790956158818611e-06</v>
       </c>
       <c r="I26" t="n">
-        <v>1.194031884447102e-05</v>
+        <v>1.788311105259922e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004061868678039486</v>
+        <v>0.01070848763077017</v>
       </c>
       <c r="K26" t="n">
-        <v>7.436246369452611e-10</v>
+        <v>6.957992314789167e-11</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9951307525462207</v>
+        <v>0.9889167252136282</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1759,91 +1759,91 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.002233576917658169</v>
+        <v>0.001162593383690591</v>
       </c>
       <c r="C27" t="n">
-        <v>1.456961996029078e-05</v>
+        <v>0.0001292337734511984</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02900354920589172</v>
+        <v>6.24865216856202e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>5.313766632360164e-13</v>
+        <v>2.220099710827884e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>7.555460351791222e-06</v>
+        <v>2.220099710827884e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002681436230917024</v>
+        <v>6.676084988611461e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.910715187623369e-05</v>
+        <v>0.9907579247537577</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004750684452799313</v>
+        <v>3.429677452019126e-07</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9612691435992035</v>
+        <v>0.007820342176771395</v>
       </c>
       <c r="K27" t="n">
-        <v>3.773608107787267e-07</v>
+        <v>3.155729676061663e-07</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9612691435992035</v>
+        <v>0.9907579247537577</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16156.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0001637944570021186</v>
+        <v>8.720114705610606e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.110886960658269e-05</v>
+        <v>3.994854430257428e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>3.841951135852484e-08</v>
+        <v>1.806993215712055e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9922880170471819</v>
+        <v>0.9874791501176293</v>
       </c>
       <c r="F28" t="n">
-        <v>6.993069447353002e-05</v>
+        <v>1.868299569269261e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0003803209165611489</v>
+        <v>0.0002544297965081634</v>
       </c>
       <c r="H28" t="n">
-        <v>5.645004748455977e-07</v>
+        <v>2.460038895441227e-07</v>
       </c>
       <c r="I28" t="n">
-        <v>6.453701038087324e-06</v>
+        <v>5.235789964649938e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>0.007079771272889982</v>
+        <v>0.01215087847766615</v>
       </c>
       <c r="K28" t="n">
-        <v>1.212606169452979e-10</v>
+        <v>1.178415645809559e-10</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9922880170471819</v>
+        <v>0.9874791501176293</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1859,341 +1859,341 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16625.fa</t>
+          <t>even_MAG-GUT18974.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001389475673056139</v>
+        <v>0.0001542038206340278</v>
       </c>
       <c r="C29" t="n">
-        <v>5.40949622751399e-06</v>
+        <v>6.865047391925385e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9895370405913866</v>
+        <v>6.28138601212726e-08</v>
       </c>
       <c r="E29" t="n">
-        <v>2.220021222222346e-14</v>
+        <v>0.9911008458602827</v>
       </c>
       <c r="F29" t="n">
-        <v>2.063416647304697e-09</v>
+        <v>4.607346915259274e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004286662786224682</v>
+        <v>0.0002948935056337152</v>
       </c>
       <c r="H29" t="n">
-        <v>8.091142899377581e-07</v>
+        <v>6.425659366802284e-07</v>
       </c>
       <c r="I29" t="n">
-        <v>3.562893073806322e-06</v>
+        <v>6.891767196543393e-06</v>
       </c>
       <c r="J29" t="n">
-        <v>0.009885541642955357</v>
+        <v>0.008389520921733505</v>
       </c>
       <c r="K29" t="n">
-        <v>2.035269992659528e-08</v>
+        <v>2.281783063394967e-10</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9895370405913866</v>
+        <v>0.9911008458602827</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>g__Duodenibacillus</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>g__Duodenibacillus</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.553580352837005e-05</v>
+        <v>0.0002515095966160586</v>
       </c>
       <c r="C30" t="n">
-        <v>3.21607093555604e-06</v>
+        <v>1.954265459060597e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02206050702522888</v>
+        <v>2.11819553665087e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>2.219976753351817e-14</v>
+        <v>0.9953630693360616</v>
       </c>
       <c r="F30" t="n">
-        <v>1.820963561151837e-12</v>
+        <v>3.551378140410101e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001283867027024317</v>
+        <v>0.0006023616450655468</v>
       </c>
       <c r="H30" t="n">
-        <v>0.000139189068130665</v>
+        <v>2.079336042137378e-06</v>
       </c>
       <c r="I30" t="n">
-        <v>2.619249116581446e-05</v>
+        <v>3.46386945548206e-06</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9775769438429684</v>
+        <v>0.003722247567205964</v>
       </c>
       <c r="K30" t="n">
-        <v>2.899349658780156e-08</v>
+        <v>3.940045451185973e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9775769438429684</v>
+        <v>0.9953630693360616</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT19561.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0003579269380811301</v>
+        <v>0.0007617337584103936</v>
       </c>
       <c r="C31" t="n">
-        <v>2.769013461170675e-05</v>
+        <v>0.0002812285010929531</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01251621639764564</v>
+        <v>0.0003993982272100305</v>
       </c>
       <c r="E31" t="n">
-        <v>2.220148838463831e-14</v>
+        <v>2.220092884115395e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>1.438838032534095e-12</v>
+        <v>2.220092884115395e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001105467854331695</v>
+        <v>7.235013556817681e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002375781107482309</v>
+        <v>0.9895602127754418</v>
       </c>
       <c r="I31" t="n">
-        <v>8.409418022613617e-06</v>
+        <v>6.401616941684814e-07</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9846031130475017</v>
+        <v>0.008924129313906936</v>
       </c>
       <c r="K31" t="n">
-        <v>3.161697606806087e-07</v>
+        <v>3.071266312646141e-07</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9846031130475017</v>
+        <v>0.9895602127754418</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17271.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0001661233411577847</v>
+        <v>0.0005005962923681544</v>
       </c>
       <c r="C32" t="n">
-        <v>5.786981309572104e-06</v>
+        <v>0.000151058793269646</v>
       </c>
       <c r="D32" t="n">
-        <v>2.227379812292079e-08</v>
+        <v>1.588886936407238e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9903449197129067</v>
+        <v>2.21969154641594e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>6.914662627112615e-05</v>
+        <v>2.21969154641594e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0003029765206921406</v>
+        <v>7.502559935098642e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.44947161089536e-07</v>
+        <v>0.9652732094214642</v>
       </c>
       <c r="I32" t="n">
-        <v>1.42675496977377e-05</v>
+        <v>1.156768025300983e-06</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009096411691350377</v>
+        <v>0.03398268438522818</v>
       </c>
       <c r="K32" t="n">
-        <v>3.556553957394811e-10</v>
+        <v>3.798708851939369e-07</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9903449197129067</v>
+        <v>0.9652732094214642</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001082637572217331</v>
+        <v>0.000128871445599748</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9971215564663648</v>
+        <v>3.140885474633866e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0006889174719696742</v>
+        <v>0.01319155993869529</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220046028431699e-14</v>
+        <v>2.224235178249472e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.220046028431699e-14</v>
+        <v>1.096366971938311e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0008655482363832067</v>
+        <v>0.0002249611067074975</v>
       </c>
       <c r="H33" t="n">
-        <v>6.239342035004872e-06</v>
+        <v>5.899672914945741e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>4.303765874981109e-07</v>
+        <v>1.971669362193757e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0002345262766084524</v>
+        <v>0.9863726943213484</v>
       </c>
       <c r="K33" t="n">
-        <v>1.442577897382946e-07</v>
+        <v>5.778301383295105e-08</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9971215564663648</v>
+        <v>0.9863726943213484</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1763.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000120492352955261</v>
+        <v>0.0007025582050923903</v>
       </c>
       <c r="C34" t="n">
-        <v>1.020248268069469e-05</v>
+        <v>4.6011774978823e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>9.547131950677268e-08</v>
+        <v>0.00663023925328791</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9889167252136282</v>
+        <v>1.234509787485308e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>2.667588362417728e-05</v>
+        <v>9.750802354260141e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0002127416281780147</v>
+        <v>0.001603063874176717</v>
       </c>
       <c r="H34" t="n">
-        <v>2.790956158818611e-06</v>
+        <v>0.0002630445428190113</v>
       </c>
       <c r="I34" t="n">
-        <v>1.788311105259922e-06</v>
+        <v>1.155227165189602e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01070848763077017</v>
+        <v>0.9907425400937292</v>
       </c>
       <c r="K34" t="n">
-        <v>6.957992314789167e-11</v>
+        <v>1.490390519035026e-08</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9889167252136282</v>
+        <v>0.9907425400937292</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18024.fa</t>
+          <t>even_MAG-GUT21424.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001162593383690591</v>
+        <v>0.00108194910262713</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001292337734511984</v>
+        <v>0.0003307702714633742</v>
       </c>
       <c r="D35" t="n">
-        <v>6.24865216856202e-05</v>
+        <v>2.22723441714285e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>2.220099710827884e-14</v>
+        <v>2.220131034295307e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.220099710827884e-14</v>
+        <v>2.220131034295307e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>6.676084988611461e-05</v>
+        <v>7.377573756111584e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9907579247537577</v>
+        <v>0.9926889403938931</v>
       </c>
       <c r="I35" t="n">
-        <v>3.429677452019126e-07</v>
+        <v>1.031065119436716e-06</v>
       </c>
       <c r="J35" t="n">
-        <v>0.007820342176771395</v>
+        <v>0.005800773000524344</v>
       </c>
       <c r="K35" t="n">
-        <v>3.155729676061663e-07</v>
+        <v>4.88084595764801e-07</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9907579247537577</v>
+        <v>0.9926889403938931</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2209,441 +2209,441 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18195.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.994961477476283e-05</v>
+        <v>0.0002988502922177997</v>
       </c>
       <c r="C36" t="n">
-        <v>6.955367207876277e-07</v>
+        <v>2.015673098034583e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>8.465945210459264e-08</v>
+        <v>0.0315904125782021</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9853780235279215</v>
+        <v>2.275200494981174e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>1.452561458917217e-05</v>
+        <v>1.5847386622467e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0001339220588071388</v>
+        <v>0.0003385263283758831</v>
       </c>
       <c r="H36" t="n">
-        <v>2.111385926894234e-09</v>
+        <v>0.002648501277850151</v>
       </c>
       <c r="I36" t="n">
-        <v>6.480874935572536e-05</v>
+        <v>1.427973576860223e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0143479881143681</v>
+        <v>0.9651020890712363</v>
       </c>
       <c r="K36" t="n">
-        <v>1.262509398040428e-11</v>
+        <v>1.990015112919025e-08</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9853780235279215</v>
+        <v>0.9651020890712363</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18210.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.197325659364848e-05</v>
+        <v>0.0001045138117202628</v>
       </c>
       <c r="C37" t="n">
-        <v>2.403378705120904e-06</v>
+        <v>2.772448954699986e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>6.070729073577644e-08</v>
+        <v>0.01910830873278221</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9925810377114834</v>
+        <v>2.379922252462952e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>3.552424414340941e-06</v>
+        <v>1.494458983796365e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0001859253374510188</v>
+        <v>0.0002219975046800259</v>
       </c>
       <c r="H37" t="n">
-        <v>3.096641532184927e-09</v>
+        <v>5.059151723053578e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>7.711489866255309e-05</v>
+        <v>1.595489718678469e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007097929183919335</v>
+        <v>0.9804958345206283</v>
       </c>
       <c r="K37" t="n">
-        <v>4.838393323353591e-12</v>
+        <v>2.507233442756684e-08</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9925810377114834</v>
+        <v>0.9804958345206283</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18312.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0001266225679268214</v>
+        <v>9.903019024041159e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.068134512442895e-05</v>
+        <v>3.817735624192816e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>1.044815019872386e-08</v>
+        <v>0.0096761189773872</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9840132901266497</v>
+        <v>2.317524180751967e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>6.072356790787639e-05</v>
+        <v>1.103225670696242e-08</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0002773608907298291</v>
+        <v>0.0001589798139649182</v>
       </c>
       <c r="H38" t="n">
-        <v>4.495701929689601e-07</v>
+        <v>1.912418172109268e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>5.563426560815853e-06</v>
+        <v>1.072717509888169e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01550529796202421</v>
+        <v>0.9900321800559868</v>
       </c>
       <c r="K38" t="n">
-        <v>9.473308955174937e-11</v>
+        <v>1.083769658125236e-08</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9840132901266497</v>
+        <v>0.9900321800559868</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18361.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.720114705610606e-05</v>
+        <v>0.0007001020764671077</v>
       </c>
       <c r="C39" t="n">
-        <v>3.994854430257428e-06</v>
+        <v>5.557508654378968e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>1.806993215712055e-07</v>
+        <v>0.008138098209297482</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9874791501176293</v>
+        <v>1.006831349914933e-13</v>
       </c>
       <c r="F39" t="n">
-        <v>1.868299569269261e-05</v>
+        <v>6.937400331003031e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0002544297965081634</v>
+        <v>0.00213876333783802</v>
       </c>
       <c r="H39" t="n">
-        <v>2.460038895441227e-07</v>
+        <v>0.0007695253724949334</v>
       </c>
       <c r="I39" t="n">
-        <v>5.235789964649938e-06</v>
+        <v>9.048091172394145e-06</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01215087847766615</v>
+        <v>0.9881881844226258</v>
       </c>
       <c r="K39" t="n">
-        <v>1.178415645809559e-10</v>
+        <v>9.663426751876863e-09</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9874791501176293</v>
+        <v>0.9881881844226258</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18974.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0001542038206340278</v>
+        <v>0.002410436599911415</v>
       </c>
       <c r="C40" t="n">
-        <v>6.865047391925385e-06</v>
+        <v>0.000201633800251016</v>
       </c>
       <c r="D40" t="n">
-        <v>6.28138601212726e-08</v>
+        <v>0.000532325382388089</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9911008458602827</v>
+        <v>2.220188668644851e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>4.607346915259274e-05</v>
+        <v>3.533420432371306e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0002948935056337152</v>
+        <v>0.0002372779784493561</v>
       </c>
       <c r="H40" t="n">
-        <v>6.425659366802284e-07</v>
+        <v>0.9945656723565804</v>
       </c>
       <c r="I40" t="n">
-        <v>6.891767196543393e-06</v>
+        <v>3.69255605950615e-07</v>
       </c>
       <c r="J40" t="n">
-        <v>0.008389520921733505</v>
+        <v>0.002049513593625695</v>
       </c>
       <c r="K40" t="n">
-        <v>2.281783063394967e-10</v>
+        <v>2.771033130560369e-06</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9911008458602827</v>
+        <v>0.9945656723565804</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19408.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0002515095966160586</v>
+        <v>0.0001365696907993285</v>
       </c>
       <c r="C41" t="n">
-        <v>1.954265459060597e-05</v>
+        <v>3.107199943153394e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>2.11819553665087e-07</v>
+        <v>0.02936054622738599</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9953630693360616</v>
+        <v>2.220045964934706e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>3.551378140410101e-05</v>
+        <v>6.343524877959605e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0006023616450655468</v>
+        <v>0.0001888970859691814</v>
       </c>
       <c r="H41" t="n">
-        <v>2.079336042137378e-06</v>
+        <v>0.000976412286959498</v>
       </c>
       <c r="I41" t="n">
-        <v>3.46386945548206e-06</v>
+        <v>2.894992413944529e-05</v>
       </c>
       <c r="J41" t="n">
-        <v>0.003722247567205964</v>
+        <v>0.9693054432609883</v>
       </c>
       <c r="K41" t="n">
-        <v>3.940045451185973e-10</v>
+        <v>7.431744923779275e-08</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9953630693360616</v>
+        <v>0.9693054432609883</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19561.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0007617337584103936</v>
+        <v>9.899280449633933e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002812285010929531</v>
+        <v>1.022109602482986e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0003993982272100305</v>
+        <v>0.007106330519819959</v>
       </c>
       <c r="E42" t="n">
-        <v>2.220092884115395e-14</v>
+        <v>2.219998050764878e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>2.220092884115395e-14</v>
+        <v>2.549221358252947e-10</v>
       </c>
       <c r="G42" t="n">
-        <v>7.235013556817681e-05</v>
+        <v>0.0002056836045033319</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9895602127754418</v>
+        <v>0.0001846167520734916</v>
       </c>
       <c r="I42" t="n">
-        <v>6.401616941684814e-07</v>
+        <v>1.436721440607968e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>0.008924129313906936</v>
+        <v>0.9923797736459546</v>
       </c>
       <c r="K42" t="n">
-        <v>3.071266312646141e-07</v>
+        <v>1.410777702907738e-08</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9895602127754418</v>
+        <v>0.9923797736459546</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19592.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.000196449809144493</v>
+        <v>8.059392692497867e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>6.469801285976734e-06</v>
+        <v>1.03249889315286e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>9.991959166381977e-08</v>
+        <v>0.03607153657132536</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9960098842138255</v>
+        <v>2.220022864441645e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0003512235759448658</v>
+        <v>4.734308254993002e-08</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0003575205986056472</v>
+        <v>0.0001868712493058248</v>
       </c>
       <c r="H43" t="n">
-        <v>1.684734881525722e-07</v>
+        <v>1.893902869065198e-05</v>
       </c>
       <c r="I43" t="n">
-        <v>2.243273760425541e-05</v>
+        <v>1.039617231039043e-05</v>
       </c>
       <c r="J43" t="n">
-        <v>0.003055750738671593</v>
+        <v>0.9636305777111801</v>
       </c>
       <c r="K43" t="n">
-        <v>1.318377438252147e-10</v>
+        <v>5.498264651070721e-09</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9960098842138255</v>
+        <v>0.9636305777111801</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19599.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0005005962923681544</v>
+        <v>0.0009837800081618588</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000151058793269646</v>
+        <v>0.0001323897642085822</v>
       </c>
       <c r="D44" t="n">
-        <v>1.588886936407238e-05</v>
+        <v>1.706267608346184e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>2.21969154641594e-14</v>
+        <v>2.220094888620322e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.21969154641594e-14</v>
+        <v>2.905283532661952e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>7.502559935098642e-05</v>
+        <v>7.898836189494249e-05</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9652732094214642</v>
+        <v>0.9918176135192404</v>
       </c>
       <c r="I44" t="n">
-        <v>1.156768025300983e-06</v>
+        <v>3.544238042392308e-07</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03398268438522818</v>
+        <v>0.006969437056179514</v>
       </c>
       <c r="K44" t="n">
-        <v>3.798708851939369e-07</v>
+        <v>3.741903759116364e-07</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9652732094214642</v>
+        <v>0.9918176135192404</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2659,41 +2659,41 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.000128871445599748</v>
+        <v>0.0001462313261621642</v>
       </c>
       <c r="C45" t="n">
-        <v>3.140885474633866e-06</v>
+        <v>2.135670094679927e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01319155993869529</v>
+        <v>0.01079331864670042</v>
       </c>
       <c r="E45" t="n">
-        <v>2.224235178249472e-14</v>
+        <v>2.223741171586133e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>1.096366971938311e-09</v>
+        <v>4.719059822696e-08</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0002249611067074975</v>
+        <v>0.0002942959681687797</v>
       </c>
       <c r="H45" t="n">
-        <v>5.899672914945741e-05</v>
+        <v>0.001139566444570963</v>
       </c>
       <c r="I45" t="n">
-        <v>1.971669362193757e-05</v>
+        <v>3.658875772741412e-07</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9863726943213484</v>
+        <v>0.9876048163458442</v>
       </c>
       <c r="K45" t="n">
-        <v>5.778301383295105e-08</v>
+        <v>1.48940895602018e-09</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9863726943213484</v>
+        <v>0.9876048163458442</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2709,241 +2709,241 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0007025582050923903</v>
+        <v>0.0001628698200241742</v>
       </c>
       <c r="C46" t="n">
-        <v>4.6011774978823e-05</v>
+        <v>4.684785203671648e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00663023925328791</v>
+        <v>6.638357505395975e-08</v>
       </c>
       <c r="E46" t="n">
-        <v>1.234509787485308e-13</v>
+        <v>0.9893228948092876</v>
       </c>
       <c r="F46" t="n">
-        <v>9.750802354260141e-07</v>
+        <v>5.372025398048828e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001603063874176717</v>
+        <v>0.0002480814717820877</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002630445428190113</v>
+        <v>9.516883800232096e-07</v>
       </c>
       <c r="I46" t="n">
-        <v>1.155227165189602e-05</v>
+        <v>1.0122736554928e-05</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9907425400937292</v>
+        <v>0.01019660748677026</v>
       </c>
       <c r="K46" t="n">
-        <v>1.490390519035026e-08</v>
+        <v>5.644417271465455e-10</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9907425400937292</v>
+        <v>0.9893228948092876</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21424.fa</t>
+          <t>even_MAG-GUT25263.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.00108194910262713</v>
+        <v>0.0002125453312124031</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003307702714633742</v>
+        <v>1.071970704747469e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>2.22723441714285e-05</v>
+        <v>3.552749031640923e-08</v>
       </c>
       <c r="E47" t="n">
-        <v>2.220131034295307e-14</v>
+        <v>0.9960186906873814</v>
       </c>
       <c r="F47" t="n">
-        <v>2.220131034295307e-14</v>
+        <v>0.0006718267984280405</v>
       </c>
       <c r="G47" t="n">
-        <v>7.377573756111584e-05</v>
+        <v>0.0004381800253989053</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9926889403938931</v>
+        <v>5.60378968279035e-07</v>
       </c>
       <c r="I47" t="n">
-        <v>1.031065119436716e-06</v>
+        <v>8.237309537418376e-06</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005800773000524344</v>
+        <v>0.002639204142335364</v>
       </c>
       <c r="K47" t="n">
-        <v>4.88084595764801e-07</v>
+        <v>9.220054432738985e-11</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9926889403938931</v>
+        <v>0.9960186906873814</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.004896685394168826</v>
+        <v>0.009444277818709528</v>
       </c>
       <c r="C48" t="n">
-        <v>6.199927249429353e-05</v>
+        <v>3.706490245942609e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001038726832126875</v>
+        <v>0.3010822020609619</v>
       </c>
       <c r="E48" t="n">
-        <v>2.220145278410977e-14</v>
+        <v>4.957950521990788e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>2.220145278410977e-14</v>
+        <v>2.680120116818448e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0004679907181502194</v>
+        <v>0.00417035635127793</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9933303184645768</v>
+        <v>0.005120095245195943</v>
       </c>
       <c r="I48" t="n">
-        <v>8.331026483887668e-06</v>
+        <v>0.006533504802346017</v>
       </c>
       <c r="J48" t="n">
-        <v>3.431363277847188e-05</v>
+        <v>0.6735725629265026</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0001616346591762436</v>
+        <v>3.993321193094007e-05</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9933303184645768</v>
+        <v>0.6735725629265026</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella(reject)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0002988502922177997</v>
+        <v>0.001105510639081818</v>
       </c>
       <c r="C49" t="n">
-        <v>2.015673098034583e-05</v>
+        <v>0.0004610181867885287</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0315904125782021</v>
+        <v>0.001127410421453407</v>
       </c>
       <c r="E49" t="n">
-        <v>2.275200494981174e-14</v>
+        <v>2.220071615894166e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>1.5847386622467e-08</v>
+        <v>2.220071615894166e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0003385263283758831</v>
+        <v>9.002613842734831e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002648501277850151</v>
+        <v>0.9743103609868152</v>
       </c>
       <c r="I49" t="n">
-        <v>1.427973576860223e-06</v>
+        <v>4.373758243624825e-06</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9651020890712363</v>
+        <v>0.02289754935777005</v>
       </c>
       <c r="K49" t="n">
-        <v>1.990015112919025e-08</v>
+        <v>3.750511375714573e-06</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9651020890712363</v>
+        <v>0.9743103609868152</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0001045138117202628</v>
+        <v>0.0002023183813370478</v>
       </c>
       <c r="C50" t="n">
-        <v>2.772448954699986e-06</v>
+        <v>5.303719851902276e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01910830873278221</v>
+        <v>0.003736006640239286</v>
       </c>
       <c r="E50" t="n">
-        <v>2.379922252462952e-14</v>
+        <v>2.737654973069467e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>1.494458983796365e-09</v>
+        <v>1.402984660309205e-08</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0002219975046800259</v>
+        <v>0.0003906374483096447</v>
       </c>
       <c r="H50" t="n">
-        <v>5.059151723053578e-05</v>
+        <v>0.0001224185138758774</v>
       </c>
       <c r="I50" t="n">
-        <v>1.595489718678469e-05</v>
+        <v>1.948306127038268e-05</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9804958345206283</v>
+        <v>0.9955237848702211</v>
       </c>
       <c r="K50" t="n">
-        <v>2.507233442756684e-08</v>
+        <v>3.333502073887624e-08</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9804958345206283</v>
+        <v>0.9955237848702211</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -2959,291 +2959,291 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9.903019024041159e-05</v>
+        <v>0.0005317742404158828</v>
       </c>
       <c r="C51" t="n">
-        <v>3.817735624192816e-06</v>
+        <v>0.000127118747414604</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0096761189773872</v>
+        <v>1.629536364061494e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>2.317524180751967e-14</v>
+        <v>2.219872256940996e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>1.103225670696242e-08</v>
+        <v>2.219872256940996e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0001589798139649182</v>
+        <v>8.321945236140469e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>1.912418172109268e-05</v>
+        <v>0.9783922174347289</v>
       </c>
       <c r="I51" t="n">
-        <v>1.072717509888169e-05</v>
+        <v>4.086770150793247e-07</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9900321800559868</v>
+        <v>0.02084878301085575</v>
       </c>
       <c r="K51" t="n">
-        <v>1.083769658125236e-08</v>
+        <v>1.830735234511692e-07</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9900321800559868</v>
+        <v>0.9783922174347289</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24616.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0007001020764671077</v>
+        <v>0.00433024883992296</v>
       </c>
       <c r="C52" t="n">
-        <v>5.557508654378968e-05</v>
+        <v>0.002062929659170029</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008138098209297482</v>
+        <v>0.0007241292973734118</v>
       </c>
       <c r="E52" t="n">
-        <v>1.006831349914933e-13</v>
+        <v>3.465641491418343e-14</v>
       </c>
       <c r="F52" t="n">
-        <v>6.937400331003031e-07</v>
+        <v>3.46564149141834e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00213876333783802</v>
+        <v>0.0001935599158964049</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0007695253724949334</v>
+        <v>0.9863413410856366</v>
       </c>
       <c r="I52" t="n">
-        <v>9.048091172394145e-06</v>
+        <v>1.890848564847301e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9881881844226258</v>
+        <v>0.006232315430939151</v>
       </c>
       <c r="K52" t="n">
-        <v>9.663426751876863e-09</v>
+        <v>9.656728534352524e-05</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9881881844226258</v>
+        <v>0.9863413410856366</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.002410436599911415</v>
+        <v>0.000402236003321638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.000201633800251016</v>
+        <v>5.85931015518694e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.000532325382388089</v>
+        <v>0.01165397072560104</v>
       </c>
       <c r="E53" t="n">
-        <v>2.220188668644851e-14</v>
+        <v>3.055951970881309e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>3.533420432371306e-14</v>
+        <v>9.678365945170804e-07</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0002372779784493561</v>
+        <v>0.0006351686320016349</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9945656723565804</v>
+        <v>0.004131629004014794</v>
       </c>
       <c r="I53" t="n">
-        <v>3.69255605950615e-07</v>
+        <v>2.852315196968032e-07</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002049513593625695</v>
+        <v>0.9831171473575578</v>
       </c>
       <c r="K53" t="n">
-        <v>2.771033130560369e-06</v>
+        <v>2.107806454113714e-09</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9945656723565804</v>
+        <v>0.9831171473575578</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0001365696907993285</v>
+        <v>0.0001137547129184156</v>
       </c>
       <c r="C54" t="n">
-        <v>3.107199943153394e-06</v>
+        <v>1.001113015254102e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02936054622738599</v>
+        <v>8.852886637474428e-08</v>
       </c>
       <c r="E54" t="n">
-        <v>2.220045964934706e-14</v>
+        <v>0.9916431203594177</v>
       </c>
       <c r="F54" t="n">
-        <v>6.343524877959605e-12</v>
+        <v>4.77551431013319e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001888970859691814</v>
+        <v>0.0002462780588703979</v>
       </c>
       <c r="H54" t="n">
-        <v>0.000976412286959498</v>
+        <v>9.635562640955937e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>2.894992413944529e-05</v>
+        <v>4.116907245563078e-05</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9693054432609883</v>
+        <v>0.007906736459207685</v>
       </c>
       <c r="K54" t="n">
-        <v>7.431744923779275e-08</v>
+        <v>1.965207947821158e-10</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9693054432609883</v>
+        <v>0.9916431203594177</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT31872.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9.899280449633933e-05</v>
+        <v>0.0001492315777246373</v>
       </c>
       <c r="C55" t="n">
-        <v>1.022109602482986e-05</v>
+        <v>7.027805447738347e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007106330519819959</v>
+        <v>1.445299104433163e-08</v>
       </c>
       <c r="E55" t="n">
-        <v>2.219998050764878e-14</v>
+        <v>0.9867989105153794</v>
       </c>
       <c r="F55" t="n">
-        <v>2.549221358252947e-10</v>
+        <v>0.000146355332278851</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0002056836045033319</v>
+        <v>0.0003546528187621739</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0001846167520734916</v>
+        <v>5.702157376601784e-07</v>
       </c>
       <c r="I55" t="n">
-        <v>1.436721440607968e-05</v>
+        <v>6.305274812933297e-06</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9923797736459546</v>
+        <v>0.01253693181700489</v>
       </c>
       <c r="K55" t="n">
-        <v>1.410777702907738e-08</v>
+        <v>1.898607080974679e-10</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9923797736459546</v>
+        <v>0.9867989105153794</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8.059392692497867e-05</v>
+        <v>5.76264747986646e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>1.03249889315286e-06</v>
+        <v>3.982230306701333e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.03607153657132536</v>
+        <v>0.01907791656886813</v>
       </c>
       <c r="E56" t="n">
-        <v>2.220022864441645e-14</v>
+        <v>2.219909298518866e-14</v>
       </c>
       <c r="F56" t="n">
-        <v>4.734308254993002e-08</v>
+        <v>2.495243511805053e-12</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0001868712493058248</v>
+        <v>5.550980885370594e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>1.893902869065198e-05</v>
+        <v>4.670542680501488e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>1.039617231039043e-05</v>
+        <v>2.98191357315455e-05</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9636305777111801</v>
+        <v>0.9807284204747475</v>
       </c>
       <c r="K56" t="n">
-        <v>5.498264651070721e-09</v>
+        <v>1.987737125035885e-08</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9636305777111801</v>
+        <v>0.9807284204747475</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3259,491 +3259,491 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT32469.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0009837800081618588</v>
+        <v>0.0001128354850449883</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0001323897642085822</v>
+        <v>7.602756527525996e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>1.706267608346184e-05</v>
+        <v>2.201485508799077e-08</v>
       </c>
       <c r="E57" t="n">
-        <v>2.220094888620322e-14</v>
+        <v>0.9898899742575066</v>
       </c>
       <c r="F57" t="n">
-        <v>2.905283532661952e-14</v>
+        <v>5.764527866864353e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>7.898836189494249e-05</v>
+        <v>0.0002500427306767795</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9918176135192404</v>
+        <v>3.817009427014023e-07</v>
       </c>
       <c r="I57" t="n">
-        <v>3.544238042392308e-07</v>
+        <v>6.0039863729536e-06</v>
       </c>
       <c r="J57" t="n">
-        <v>0.006969437056179514</v>
+        <v>0.009675491658368691</v>
       </c>
       <c r="K57" t="n">
-        <v>3.741903759116364e-07</v>
+        <v>1.31036138296774e-10</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9918176135192404</v>
+        <v>0.9898899742575066</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0001462313261621642</v>
+        <v>0.001147309285538029</v>
       </c>
       <c r="C58" t="n">
-        <v>2.135670094679927e-05</v>
+        <v>0.000928608828619561</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01079331864670042</v>
+        <v>0.0001202506463587827</v>
       </c>
       <c r="E58" t="n">
-        <v>2.223741171586133e-14</v>
+        <v>2.220171119317208e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>4.719059822696e-08</v>
+        <v>2.220171119317208e-14</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0002942959681687797</v>
+        <v>0.0001569570343412675</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001139566444570963</v>
+        <v>0.9933441148043994</v>
       </c>
       <c r="I58" t="n">
-        <v>3.658875772741412e-07</v>
+        <v>1.533993605996296e-06</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9876048163458442</v>
+        <v>0.004298470873285864</v>
       </c>
       <c r="K58" t="n">
-        <v>1.48940895602018e-09</v>
+        <v>2.754533806586521e-06</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9876048163458442</v>
+        <v>0.9933441148043994</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25075.fa</t>
+          <t>even_MAG-GUT3478.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8.236992590320296e-05</v>
+        <v>0.003981672533556282</v>
       </c>
       <c r="C59" t="n">
-        <v>1.147519707296843e-06</v>
+        <v>0.9789858086237092</v>
       </c>
       <c r="D59" t="n">
-        <v>1.95227375130661e-08</v>
+        <v>0.00180031661058014</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9925216411171977</v>
+        <v>6.520188835607967e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>4.895618906308288e-05</v>
+        <v>4.750734935708902e-11</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0001827582452800826</v>
+        <v>0.007879929486307643</v>
       </c>
       <c r="H59" t="n">
-        <v>5.956008538335797e-09</v>
+        <v>3.096235247112664e-06</v>
       </c>
       <c r="I59" t="n">
-        <v>6.444008743682908e-05</v>
+        <v>1.425913467610426e-06</v>
       </c>
       <c r="J59" t="n">
-        <v>0.007098661429063712</v>
+        <v>2.177539622102818e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>7.602200491300498e-12</v>
+        <v>0.007325975153338593</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9925216411171977</v>
+        <v>0.9789858086237092</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__CAG-521</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__CAG-521</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25223.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0001628698200241742</v>
+        <v>0.0006182350158910452</v>
       </c>
       <c r="C60" t="n">
-        <v>4.684785203671648e-06</v>
+        <v>0.000187169350114741</v>
       </c>
       <c r="D60" t="n">
-        <v>6.638357505395975e-08</v>
+        <v>3.564283215860138e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9893228948092876</v>
+        <v>2.220053183118763e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>5.372025398048828e-05</v>
+        <v>3.08218495389638e-14</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0002480814717820877</v>
+        <v>0.0001476545187378793</v>
       </c>
       <c r="H60" t="n">
-        <v>9.516883800232096e-07</v>
+        <v>0.9900554593843952</v>
       </c>
       <c r="I60" t="n">
-        <v>1.0122736554928e-05</v>
+        <v>5.413762982015494e-07</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01019660748677026</v>
+        <v>0.008955036113644099</v>
       </c>
       <c r="K60" t="n">
-        <v>5.644417271465455e-10</v>
+        <v>2.614087072639407e-07</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9893228948092876</v>
+        <v>0.9900554593843952</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25263.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0002125453312124031</v>
+        <v>0.003061986798092721</v>
       </c>
       <c r="C61" t="n">
-        <v>1.071970704747469e-05</v>
+        <v>0.0009751144709654898</v>
       </c>
       <c r="D61" t="n">
-        <v>3.552749031640923e-08</v>
+        <v>0.002246247992653705</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9960186906873814</v>
+        <v>3.743785155549322e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0006718267984280405</v>
+        <v>3.743785155549327e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0004381800253989053</v>
+        <v>0.0004220865640937817</v>
       </c>
       <c r="H61" t="n">
-        <v>5.60378968279035e-07</v>
+        <v>0.9897568508534508</v>
       </c>
       <c r="I61" t="n">
-        <v>8.237309537418376e-06</v>
+        <v>3.111892937778821e-05</v>
       </c>
       <c r="J61" t="n">
-        <v>0.002639204142335364</v>
+        <v>0.003485512750642963</v>
       </c>
       <c r="K61" t="n">
-        <v>9.220054432738985e-11</v>
+        <v>2.108164064789907e-05</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9960186906873814</v>
+        <v>0.9897568508534508</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.009444277818709528</v>
+        <v>0.001483974730866583</v>
       </c>
       <c r="C62" t="n">
-        <v>3.706490245942609e-05</v>
+        <v>0.0004102133502998265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3010822020609619</v>
+        <v>0.0002673520122244326</v>
       </c>
       <c r="E62" t="n">
-        <v>4.957950521990788e-13</v>
+        <v>2.220054433967218e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>2.680120116818448e-09</v>
+        <v>2.220054433967218e-14</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00417035635127793</v>
+        <v>0.0002519533536153603</v>
       </c>
       <c r="H62" t="n">
-        <v>0.005120095245195943</v>
+        <v>0.9947425837133613</v>
       </c>
       <c r="I62" t="n">
-        <v>0.006533504802346017</v>
+        <v>1.617797278619081e-06</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6735725629265026</v>
+        <v>0.002839649034718662</v>
       </c>
       <c r="K62" t="n">
-        <v>3.993321193094007e-05</v>
+        <v>2.656007590711392e-06</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6735725629265026</v>
+        <v>0.9947425837133613</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>g__Sutterella(reject)</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001105510639081818</v>
+        <v>0.000183787110695099</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0004610181867885287</v>
+        <v>2.631733113446674e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001127410421453407</v>
+        <v>0.0114352124791123</v>
       </c>
       <c r="E63" t="n">
-        <v>2.220071615894166e-14</v>
+        <v>2.220012176601723e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>2.220071615894166e-14</v>
+        <v>2.024229857634304e-11</v>
       </c>
       <c r="G63" t="n">
-        <v>9.002613842734831e-05</v>
+        <v>0.0003663148035045899</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9743103609868152</v>
+        <v>0.002106169348264414</v>
       </c>
       <c r="I63" t="n">
-        <v>4.373758243624825e-06</v>
+        <v>4.740272437924942e-06</v>
       </c>
       <c r="J63" t="n">
-        <v>0.02289754935777005</v>
+        <v>0.9858774355045474</v>
       </c>
       <c r="K63" t="n">
-        <v>3.750511375714573e-06</v>
+        <v>2.313003917394192e-08</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9743103609868152</v>
+        <v>0.9858774355045474</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0002023183813370478</v>
+        <v>0.001885131333952422</v>
       </c>
       <c r="C64" t="n">
-        <v>5.303719851902276e-06</v>
+        <v>0.0009358595614195725</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003736006640239286</v>
+        <v>0.0002381464843248175</v>
       </c>
       <c r="E64" t="n">
-        <v>2.737654973069467e-14</v>
+        <v>2.21999654453796e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>1.402984660309205e-08</v>
+        <v>2.21999654453796e-14</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0003906374483096447</v>
+        <v>0.0002017150248511165</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0001224185138758774</v>
+        <v>0.9926294135087763</v>
       </c>
       <c r="I64" t="n">
-        <v>1.948306127038268e-05</v>
+        <v>3.055887043367673e-06</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9955237848702211</v>
+        <v>0.00409399811822608</v>
       </c>
       <c r="K64" t="n">
-        <v>3.333502073887624e-08</v>
+        <v>1.268008136201628e-05</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9955237848702211</v>
+        <v>0.9926294135087763</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0005317742404158828</v>
+        <v>6.715327264366699e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000127118747414604</v>
+        <v>7.2901429588209e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>1.629536364061494e-05</v>
+        <v>0.009619465344983636</v>
       </c>
       <c r="E65" t="n">
-        <v>2.219872256940996e-14</v>
+        <v>2.220008600111691e-14</v>
       </c>
       <c r="F65" t="n">
-        <v>2.219872256940996e-14</v>
+        <v>7.258275169255136e-12</v>
       </c>
       <c r="G65" t="n">
-        <v>8.321945236140469e-05</v>
+        <v>0.0001216426092440091</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9783922174347289</v>
+        <v>7.025498251922957e-05</v>
       </c>
       <c r="I65" t="n">
-        <v>4.086770150793247e-07</v>
+        <v>2.142680927922272e-05</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02084878301085575</v>
+        <v>0.9900927327144525</v>
       </c>
       <c r="K65" t="n">
-        <v>1.830735234511692e-07</v>
+        <v>3.41166383351188e-08</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9783922174347289</v>
+        <v>0.9900927327144525</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.00433024883992296</v>
+        <v>0.002214779609285609</v>
       </c>
       <c r="C66" t="n">
-        <v>0.002062929659170029</v>
+        <v>0.0002849194901462601</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0007241292973734118</v>
+        <v>0.000313420780939003</v>
       </c>
       <c r="E66" t="n">
-        <v>3.465641491418343e-14</v>
+        <v>2.220086145457344e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>3.46564149141834e-14</v>
+        <v>1.708963989161431e-12</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0001935599158964049</v>
+        <v>0.0002508792809532266</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9863413410856366</v>
+        <v>0.9817075333727904</v>
       </c>
       <c r="I66" t="n">
-        <v>1.890848564847301e-05</v>
+        <v>9.836692416016675e-07</v>
       </c>
       <c r="J66" t="n">
-        <v>0.006232315430939151</v>
+        <v>0.01522555289878121</v>
       </c>
       <c r="K66" t="n">
-        <v>9.656728534352524e-05</v>
+        <v>1.930896131405806e-06</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9863413410856366</v>
+        <v>0.9817075333727904</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -3759,541 +3759,541 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.000402236003321638</v>
+        <v>0.0002298042451443775</v>
       </c>
       <c r="C67" t="n">
-        <v>5.85931015518694e-05</v>
+        <v>4.102797723794056e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01165397072560104</v>
+        <v>6.217466116899043e-08</v>
       </c>
       <c r="E67" t="n">
-        <v>3.055951970881309e-14</v>
+        <v>0.9927049782899223</v>
       </c>
       <c r="F67" t="n">
-        <v>9.678365945170804e-07</v>
+        <v>0.0002091287782115526</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0006351686320016349</v>
+        <v>0.0002534847972235722</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004131629004014794</v>
+        <v>8.126934588847908e-07</v>
       </c>
       <c r="I67" t="n">
-        <v>2.852315196968032e-07</v>
+        <v>1.081231754634137e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9831171473575578</v>
+        <v>0.006586813370608101</v>
       </c>
       <c r="K67" t="n">
-        <v>2.107806454113714e-09</v>
+        <v>5.3549978262631e-10</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9831171473575578</v>
+        <v>0.9927049782899223</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0001137547129184156</v>
+        <v>0.003237122861577557</v>
       </c>
       <c r="C68" t="n">
-        <v>1.001113015254102e-06</v>
+        <v>3.593857364989172e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>8.852886637474428e-08</v>
+        <v>0.004579877908343041</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9916431203594177</v>
+        <v>4.222187148494296e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>4.77551431013319e-05</v>
+        <v>2.249423626537064e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0002462780588703979</v>
+        <v>6.352589034212519e-05</v>
       </c>
       <c r="H68" t="n">
-        <v>9.635562640955937e-08</v>
+        <v>8.657290052755934e-08</v>
       </c>
       <c r="I68" t="n">
-        <v>4.116907245563078e-05</v>
+        <v>7.47304202439793e-08</v>
       </c>
       <c r="J68" t="n">
-        <v>0.007906736459207685</v>
+        <v>0.9920608792264168</v>
       </c>
       <c r="K68" t="n">
-        <v>1.965207947821158e-10</v>
+        <v>4.222187148494314e-14</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9916431203594177</v>
+        <v>0.9920608792264168</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31872.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0001492315777246373</v>
+        <v>0.001203204604720236</v>
       </c>
       <c r="C69" t="n">
-        <v>7.027805447738347e-06</v>
+        <v>0.0001942572492665978</v>
       </c>
       <c r="D69" t="n">
-        <v>1.445299104433163e-08</v>
+        <v>4.039172093965057e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9867989105153794</v>
+        <v>2.220082255534362e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000146355332278851</v>
+        <v>2.220082255534362e-14</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0003546528187621739</v>
+        <v>7.125058741834542e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>5.702157376601784e-07</v>
+        <v>0.9890008558506151</v>
       </c>
       <c r="I69" t="n">
-        <v>6.305274812933297e-06</v>
+        <v>5.33960091073123e-07</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01253693181700489</v>
+        <v>0.009488991623853632</v>
       </c>
       <c r="K69" t="n">
-        <v>1.898607080974679e-10</v>
+        <v>5.144030509622585e-07</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9867989105153794</v>
+        <v>0.9890008558506151</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5.76264747986646e-05</v>
+        <v>0.0009111159737830818</v>
       </c>
       <c r="C70" t="n">
-        <v>3.982230306701333e-06</v>
+        <v>0.0002292720438747632</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01907791656886813</v>
+        <v>0.0008602073815360112</v>
       </c>
       <c r="E70" t="n">
-        <v>2.219909298518866e-14</v>
+        <v>2.220094019202471e-14</v>
       </c>
       <c r="F70" t="n">
-        <v>2.495243511805053e-12</v>
+        <v>2.220094019202471e-14</v>
       </c>
       <c r="G70" t="n">
-        <v>5.550980885370594e-05</v>
+        <v>0.0001121415215271995</v>
       </c>
       <c r="H70" t="n">
-        <v>4.670542680501488e-05</v>
+        <v>0.9859657995442103</v>
       </c>
       <c r="I70" t="n">
-        <v>2.98191357315455e-05</v>
+        <v>1.194580364553137e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9807284204747475</v>
+        <v>0.0119197210624424</v>
       </c>
       <c r="K70" t="n">
-        <v>1.987737125035885e-08</v>
+        <v>5.478922173745514e-07</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9807284204747475</v>
+        <v>0.9859657995442103</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32469.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0001128354850449883</v>
+        <v>0.02028301809980102</v>
       </c>
       <c r="C71" t="n">
-        <v>7.602756527525996e-06</v>
+        <v>0.001612154792081266</v>
       </c>
       <c r="D71" t="n">
-        <v>2.201485508799077e-08</v>
+        <v>0.01442117300487338</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9898899742575066</v>
+        <v>3.336294434789174e-13</v>
       </c>
       <c r="F71" t="n">
-        <v>5.764527866864353e-05</v>
+        <v>0.03236802908114239</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0002500427306767795</v>
+        <v>0.0006445964544017453</v>
       </c>
       <c r="H71" t="n">
-        <v>3.817009427014023e-07</v>
+        <v>1.841316012157672e-06</v>
       </c>
       <c r="I71" t="n">
-        <v>6.0039863729536e-06</v>
+        <v>5.915019736522763e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>0.009675491658368691</v>
+        <v>0.9306685957490473</v>
       </c>
       <c r="K71" t="n">
-        <v>1.31036138296774e-10</v>
+        <v>3.336294434789169e-13</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9898899742575066</v>
+        <v>0.9306685957490473</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001147309285538029</v>
+        <v>8.491335796252933e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000928608828619561</v>
+        <v>6.95716795753351e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001202506463587827</v>
+        <v>0.0125379317889455</v>
       </c>
       <c r="E72" t="n">
-        <v>2.220171119317208e-14</v>
+        <v>2.220025213062962e-14</v>
       </c>
       <c r="F72" t="n">
-        <v>2.220171119317208e-14</v>
+        <v>1.232090961562387e-10</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0001569570343412675</v>
+        <v>0.0002699204734358404</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9933441148043994</v>
+        <v>0.0003164735212341242</v>
       </c>
       <c r="I72" t="n">
-        <v>1.533993605996296e-06</v>
+        <v>7.010588835834948e-06</v>
       </c>
       <c r="J72" t="n">
-        <v>0.004298470873285864</v>
+        <v>0.9867767834150587</v>
       </c>
       <c r="K72" t="n">
-        <v>2.754533806586521e-06</v>
+        <v>9.563338713767423e-09</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9933441148043994</v>
+        <v>0.9867767834150587</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3478.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.003981672533556282</v>
+        <v>0.0004276834141914922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9789858086237092</v>
+        <v>5.324755353099485e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00180031661058014</v>
+        <v>0.06450617877683676</v>
       </c>
       <c r="E73" t="n">
-        <v>6.520188835607967e-14</v>
+        <v>4.983336139841741e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>4.750734935708902e-11</v>
+        <v>1.774404980776798e-10</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007879929486307643</v>
+        <v>0.0006734074695677461</v>
       </c>
       <c r="H73" t="n">
-        <v>3.096235247112664e-06</v>
+        <v>0.0007827233302175743</v>
       </c>
       <c r="I73" t="n">
-        <v>1.425913467610426e-06</v>
+        <v>8.159152817902898e-05</v>
       </c>
       <c r="J73" t="n">
-        <v>2.177539622102818e-05</v>
+        <v>0.9335229374432727</v>
       </c>
       <c r="K73" t="n">
-        <v>0.007325975153338593</v>
+        <v>1.531048911183395e-07</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9789858086237092</v>
+        <v>0.9335229374432727</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0006182350158910452</v>
+        <v>0.0001194581393884283</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000187169350114741</v>
+        <v>2.204841584234896e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>3.564283215860138e-05</v>
+        <v>0.01915455725952639</v>
       </c>
       <c r="E74" t="n">
-        <v>2.220053183118763e-14</v>
+        <v>2.220072377399247e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>3.08218495389638e-14</v>
+        <v>3.832388316635386e-11</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001476545187378793</v>
+        <v>0.0001956351960047706</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9900554593843952</v>
+        <v>0.001977280596971928</v>
       </c>
       <c r="I74" t="n">
-        <v>5.413762982015494e-07</v>
+        <v>5.122720962639579e-06</v>
       </c>
       <c r="J74" t="n">
-        <v>0.008955036113644099</v>
+        <v>0.9785258839172649</v>
       </c>
       <c r="K74" t="n">
-        <v>2.614087072639407e-07</v>
+        <v>1.371569263470408e-08</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9900554593843952</v>
+        <v>0.9785258839172649</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.003061986798092721</v>
+        <v>0.001046875088366407</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0009751144709654898</v>
+        <v>6.939716212911318e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002246247992653705</v>
+        <v>0.009841937949981023</v>
       </c>
       <c r="E75" t="n">
-        <v>3.743785155549322e-14</v>
+        <v>8.468030822772284e-14</v>
       </c>
       <c r="F75" t="n">
-        <v>3.743785155549327e-14</v>
+        <v>1.88955388110393e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0004220865640937817</v>
+        <v>0.0008499455731990337</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9897568508534508</v>
+        <v>0.001922318630295977</v>
       </c>
       <c r="I75" t="n">
-        <v>3.111892937778821e-05</v>
+        <v>2.587019746072151e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>0.003485512750642963</v>
+        <v>0.9862435009261645</v>
       </c>
       <c r="K75" t="n">
-        <v>2.108164064789907e-05</v>
+        <v>1.355767798226862e-07</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9897568508534508</v>
+        <v>0.9862435009261645</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36148.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0001258902147383941</v>
+        <v>0.001805401156209618</v>
       </c>
       <c r="C76" t="n">
-        <v>1.753834693436093e-05</v>
+        <v>0.0004601160830861796</v>
       </c>
       <c r="D76" t="n">
-        <v>3.152050077054648e-08</v>
+        <v>0.004103346784026207</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9882360313497659</v>
+        <v>4.879582299643521e-14</v>
       </c>
       <c r="F76" t="n">
-        <v>4.187872352512892e-05</v>
+        <v>4.879582299643803e-14</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0002041653062855873</v>
+        <v>0.0001399000119640071</v>
       </c>
       <c r="H76" t="n">
-        <v>2.502236160592259e-06</v>
+        <v>0.009925475371871927</v>
       </c>
       <c r="I76" t="n">
-        <v>9.775929276152818e-07</v>
+        <v>0.0003714039207063305</v>
       </c>
       <c r="J76" t="n">
-        <v>0.01137098463919192</v>
+        <v>0.9831866223965228</v>
       </c>
       <c r="K76" t="n">
-        <v>6.996998732361828e-11</v>
+        <v>7.734275515305902e-06</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9882360313497659</v>
+        <v>0.9831866223965228</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001483974730866583</v>
+        <v>0.0007013323116563457</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0004102133502998265</v>
+        <v>0.0002017992258225181</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0002673520122244326</v>
+        <v>1.373057029270012e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>2.220054433967218e-14</v>
+        <v>2.219569233568879e-14</v>
       </c>
       <c r="F77" t="n">
-        <v>2.220054433967218e-14</v>
+        <v>2.219569233568879e-14</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0002519533536153603</v>
+        <v>0.0001235839462679963</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9947425837133613</v>
+        <v>0.9635893732010707</v>
       </c>
       <c r="I77" t="n">
-        <v>1.617797278619081e-06</v>
+        <v>8.48765630801738e-07</v>
       </c>
       <c r="J77" t="n">
-        <v>0.002839649034718662</v>
+        <v>0.03538141448952335</v>
       </c>
       <c r="K77" t="n">
-        <v>2.656007590711392e-06</v>
+        <v>2.750029546945413e-07</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9947425837133613</v>
+        <v>0.9635893732010707</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -4309,41 +4309,41 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.000183787110695099</v>
+        <v>0.001586304492651886</v>
       </c>
       <c r="C78" t="n">
-        <v>2.631733113446674e-05</v>
+        <v>3.80117534995928e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0114352124791123</v>
+        <v>0.07973884818777163</v>
       </c>
       <c r="E78" t="n">
-        <v>2.220012176601723e-14</v>
+        <v>2.702545034704073e-13</v>
       </c>
       <c r="F78" t="n">
-        <v>2.024229857634304e-11</v>
+        <v>1.703510612885939e-06</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0003663148035045899</v>
+        <v>0.005582857991814961</v>
       </c>
       <c r="H78" t="n">
-        <v>0.002106169348264414</v>
+        <v>0.001748676559266647</v>
       </c>
       <c r="I78" t="n">
-        <v>4.740272437924942e-06</v>
+        <v>5.014852609490642e-05</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9858774355045474</v>
+        <v>0.9112533995996557</v>
       </c>
       <c r="K78" t="n">
-        <v>2.313003917394192e-08</v>
+        <v>4.937836137822344e-08</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9858774355045474</v>
+        <v>0.9112533995996557</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -4359,41 +4359,41 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001885131333952422</v>
+        <v>0.001049209768331205</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0009358595614195725</v>
+        <v>0.0001973291013203942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0002381464843248175</v>
+        <v>4.025699201515099e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>2.21999654453796e-14</v>
+        <v>2.220104703316328e-14</v>
       </c>
       <c r="F79" t="n">
-        <v>2.21999654453796e-14</v>
+        <v>1.414904320085996e-13</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0002017150248511165</v>
+        <v>0.0001282011929473099</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9926294135087763</v>
+        <v>0.9923526210737167</v>
       </c>
       <c r="I79" t="n">
-        <v>3.055887043367673e-06</v>
+        <v>2.822992343663632e-07</v>
       </c>
       <c r="J79" t="n">
-        <v>0.00409399811822608</v>
+        <v>0.006231708621555197</v>
       </c>
       <c r="K79" t="n">
-        <v>1.268008136201628e-05</v>
+        <v>3.909507159449553e-07</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9926294135087763</v>
+        <v>0.9923526210737167</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -4409,291 +4409,291 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT5085.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6.715327264366699e-05</v>
+        <v>0.0001821292943728271</v>
       </c>
       <c r="C80" t="n">
-        <v>7.2901429588209e-06</v>
+        <v>1.25777134474127e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>0.009619465344983636</v>
+        <v>0.9979029783862583</v>
       </c>
       <c r="E80" t="n">
-        <v>2.220008600111691e-14</v>
+        <v>2.22012350060122e-14</v>
       </c>
       <c r="F80" t="n">
-        <v>7.258275169255136e-12</v>
+        <v>7.644040408305574e-10</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0001216426092440091</v>
+        <v>0.001039222332221376</v>
       </c>
       <c r="H80" t="n">
-        <v>7.025498251922957e-05</v>
+        <v>1.073355057247016e-07</v>
       </c>
       <c r="I80" t="n">
-        <v>2.142680927922272e-05</v>
+        <v>0.0002346160583441073</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9900927327144525</v>
+        <v>0.0006396125774872196</v>
       </c>
       <c r="K80" t="n">
-        <v>3.41166383351188e-08</v>
+        <v>7.54800394200199e-08</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9900927327144525</v>
+        <v>0.9979029783862583</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37961.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.03243790473107692</v>
+        <v>0.0004513513049217102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007416632180329871</v>
+        <v>7.957280644166603e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002412368297692783</v>
+        <v>0.004678893355093956</v>
       </c>
       <c r="E81" t="n">
-        <v>2.504702802929063e-13</v>
+        <v>2.469006779844491e-14</v>
       </c>
       <c r="F81" t="n">
-        <v>2.504702802929221e-13</v>
+        <v>2.469006779846188e-14</v>
       </c>
       <c r="G81" t="n">
-        <v>0.010669244891347</v>
+        <v>0.0001291724369680594</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04706471379413748</v>
+        <v>0.001970250350735193</v>
       </c>
       <c r="I81" t="n">
-        <v>0.005201918707676339</v>
+        <v>6.873097314089155e-05</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0001290445231059173</v>
+        <v>0.9926214975329846</v>
       </c>
       <c r="K81" t="n">
-        <v>0.8946681728741328</v>
+        <v>5.312396646209718e-07</v>
       </c>
       <c r="L81" t="n">
-        <v>0.8946681728741328</v>
+        <v>0.9926214975329846</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>g__Turicimonas</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>g__Turicimonas</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38016.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0001042189354691193</v>
+        <v>0.0002081461274617463</v>
       </c>
       <c r="C82" t="n">
-        <v>7.023909256611626e-07</v>
+        <v>7.76681390838939e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>1.511532748295535e-07</v>
+        <v>0.01602480319544087</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9964171448175656</v>
+        <v>2.222925599833277e-14</v>
       </c>
       <c r="F82" t="n">
-        <v>1.270736231258944e-05</v>
+        <v>8.500579207495445e-12</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0002993091996959923</v>
+        <v>0.0001821365753771382</v>
       </c>
       <c r="H82" t="n">
-        <v>3.52111092846472e-09</v>
+        <v>0.000881550720527811</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0004724509932462198</v>
+        <v>2.40577694670145e-05</v>
       </c>
       <c r="J82" t="n">
-        <v>0.002693311556674149</v>
+        <v>0.982671425700121</v>
       </c>
       <c r="K82" t="n">
-        <v>6.972504140228577e-11</v>
+        <v>1.130891731841557e-07</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9964171448175656</v>
+        <v>0.982671425700121</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.002214779609285609</v>
+        <v>0.0001946674330623091</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002849194901462601</v>
+        <v>4.471977735535233e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.000313420780939003</v>
+        <v>0.07873920254138564</v>
       </c>
       <c r="E83" t="n">
-        <v>2.220086145457344e-14</v>
+        <v>2.550578275744993e-14</v>
       </c>
       <c r="F83" t="n">
-        <v>1.708963989161431e-12</v>
+        <v>5.651153924906927e-11</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0002508792809532266</v>
+        <v>0.0003695200114508424</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9817075333727904</v>
+        <v>0.0004116644740561948</v>
       </c>
       <c r="I83" t="n">
-        <v>9.836692416016675e-07</v>
+        <v>1.808230817428351e-05</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01522555289878121</v>
+        <v>0.9202623481529363</v>
       </c>
       <c r="K83" t="n">
-        <v>1.930896131405806e-06</v>
+        <v>4.304466182275058e-08</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9817075333727904</v>
+        <v>0.9202623481529363</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38999.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0002298042451443775</v>
+        <v>0.0003868924197606596</v>
       </c>
       <c r="C84" t="n">
-        <v>4.102797723794056e-06</v>
+        <v>8.053506029851648e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>6.217466116899043e-08</v>
+        <v>0.01171015591712731</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9927049782899223</v>
+        <v>2.757118643305443e-14</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0002091287782115526</v>
+        <v>1.051877716726076e-11</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0002534847972235722</v>
+        <v>0.0001788261069696422</v>
       </c>
       <c r="H84" t="n">
-        <v>8.126934588847908e-07</v>
+        <v>0.004840404592143217</v>
       </c>
       <c r="I84" t="n">
-        <v>1.081231754634137e-05</v>
+        <v>7.868467568443471e-05</v>
       </c>
       <c r="J84" t="n">
-        <v>0.006586813370608101</v>
+        <v>0.9827967505217555</v>
       </c>
       <c r="K84" t="n">
-        <v>5.3549978262631e-10</v>
+        <v>2.322499830058035e-07</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9927049782899223</v>
+        <v>0.9827967505217555</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003237122861577557</v>
+        <v>0.0003196490123632619</v>
       </c>
       <c r="C85" t="n">
-        <v>3.593857364989172e-05</v>
+        <v>4.919651119138317e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004579877908343041</v>
+        <v>0.01475647072589956</v>
       </c>
       <c r="E85" t="n">
-        <v>4.222187148494296e-14</v>
+        <v>4.675269016703257e-14</v>
       </c>
       <c r="F85" t="n">
-        <v>2.249423626537064e-05</v>
+        <v>2.460916718869739e-08</v>
       </c>
       <c r="G85" t="n">
-        <v>6.352589034212519e-05</v>
+        <v>0.0004900442433436421</v>
       </c>
       <c r="H85" t="n">
-        <v>8.657290052755934e-08</v>
+        <v>0.0001148148246087736</v>
       </c>
       <c r="I85" t="n">
-        <v>7.47304202439793e-08</v>
+        <v>6.859156296335172e-05</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9920608792264168</v>
+        <v>0.984245407138625</v>
       </c>
       <c r="K85" t="n">
-        <v>4.222187148494314e-14</v>
+        <v>7.823186339440878e-08</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9920608792264168</v>
+        <v>0.984245407138625</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -4709,91 +4709,91 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001203204604720236</v>
+        <v>0.000106443510744617</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001942572492665978</v>
+        <v>4.99508363845457e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>4.039172093965057e-05</v>
+        <v>4.037348932208566e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>2.220082255534362e-14</v>
+        <v>0.9958019563168807</v>
       </c>
       <c r="F86" t="n">
-        <v>2.220082255534362e-14</v>
+        <v>3.655847526817874e-08</v>
       </c>
       <c r="G86" t="n">
-        <v>7.125058741834542e-05</v>
+        <v>0.0008854767799730299</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9890008558506151</v>
+        <v>6.046057704241114e-08</v>
       </c>
       <c r="I86" t="n">
-        <v>5.33960091073123e-07</v>
+        <v>0.0003294149037762065</v>
       </c>
       <c r="J86" t="n">
-        <v>0.009488991623853632</v>
+        <v>0.002871211204799944</v>
       </c>
       <c r="K86" t="n">
-        <v>5.144030509622585e-07</v>
+        <v>1.44624162831281e-09</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9890008558506151</v>
+        <v>0.9958019563168807</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0009111159737830818</v>
+        <v>0.0008627175272870916</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0002292720438747632</v>
+        <v>0.0001356703877197737</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0008602073815360112</v>
+        <v>0.0002156381134899572</v>
       </c>
       <c r="E87" t="n">
-        <v>2.220094019202471e-14</v>
+        <v>2.220063746860198e-14</v>
       </c>
       <c r="F87" t="n">
-        <v>2.220094019202471e-14</v>
+        <v>2.220063746860198e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0001121415215271995</v>
+        <v>0.0001166821938111579</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9859657995442103</v>
+        <v>0.9859720587493275</v>
       </c>
       <c r="I87" t="n">
-        <v>1.194580364553137e-06</v>
+        <v>5.172458734116263e-07</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0119197210624424</v>
+        <v>0.0126965353782206</v>
       </c>
       <c r="K87" t="n">
-        <v>5.478922173745514e-07</v>
+        <v>1.804042262717118e-07</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9859657995442103</v>
+        <v>0.9859720587493275</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4809,41 +4809,41 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02028301809980102</v>
+        <v>0.003235406399231954</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001612154792081266</v>
+        <v>0.000830770128689343</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01442117300487338</v>
+        <v>0.007519281698451432</v>
       </c>
       <c r="E88" t="n">
-        <v>3.336294434789174e-13</v>
+        <v>7.423751163046678e-14</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03236802908114239</v>
+        <v>7.423751163047408e-14</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0006445964544017453</v>
+        <v>0.000355438724673495</v>
       </c>
       <c r="H88" t="n">
-        <v>1.841316012157672e-06</v>
+        <v>0.01117363644393802</v>
       </c>
       <c r="I88" t="n">
-        <v>5.915019736522763e-07</v>
+        <v>0.0002796455273949055</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9306685957490473</v>
+        <v>0.9765985299335513</v>
       </c>
       <c r="K88" t="n">
-        <v>3.336294434789169e-13</v>
+        <v>7.291143921153924e-06</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9306685957490473</v>
+        <v>0.9765985299335513</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -4859,91 +4859,91 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39245.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0002107068152966771</v>
+        <v>7.447709317580304e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>3.817177340791125e-06</v>
+        <v>1.5532064286978e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>2.774379951033783e-07</v>
+        <v>0.02257496754811186</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9970946627011466</v>
+        <v>2.219860255256576e-14</v>
       </c>
       <c r="F89" t="n">
-        <v>8.467167738250142e-07</v>
+        <v>6.818564957232739e-14</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0009068253152880922</v>
+        <v>8.490424094675417e-05</v>
       </c>
       <c r="H89" t="n">
-        <v>9.592470693894409e-08</v>
+        <v>0.0001730086590801877</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0005092843376633468</v>
+        <v>1.423310865968523e-05</v>
       </c>
       <c r="J89" t="n">
-        <v>0.001273482060279843</v>
+        <v>0.9770627116540676</v>
       </c>
       <c r="K89" t="n">
-        <v>1.513508612119443e-09</v>
+        <v>1.656315807416072e-07</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9970946627011466</v>
+        <v>0.9770627116540676</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>8.491335796252933e-05</v>
+        <v>0.0001774390647471885</v>
       </c>
       <c r="C90" t="n">
-        <v>6.95716795753351e-06</v>
+        <v>2.875231017401581e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0125379317889455</v>
+        <v>0.03389118944931944</v>
       </c>
       <c r="E90" t="n">
-        <v>2.220025213062962e-14</v>
+        <v>2.220615486907054e-14</v>
       </c>
       <c r="F90" t="n">
-        <v>1.232090961562387e-10</v>
+        <v>1.545137895199375e-11</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0002699204734358404</v>
+        <v>0.0001971784197547011</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0003164735212341242</v>
+        <v>0.0006443357976035441</v>
       </c>
       <c r="I90" t="n">
-        <v>7.010588835834948e-06</v>
+        <v>5.177755364417833e-05</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9867767834150587</v>
+        <v>0.9650350747303887</v>
       </c>
       <c r="K90" t="n">
-        <v>9.563338713767423e-09</v>
+        <v>1.297380511794189e-07</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9867767834150587</v>
+        <v>0.9650350747303887</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -4959,91 +4959,91 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0004276834141914922</v>
+        <v>0.0001244303388007082</v>
       </c>
       <c r="C91" t="n">
-        <v>5.324755353099485e-06</v>
+        <v>2.953756544992902e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06450617877683676</v>
+        <v>7.99004177788087e-08</v>
       </c>
       <c r="E91" t="n">
-        <v>4.983336139841741e-14</v>
+        <v>0.9922021723969796</v>
       </c>
       <c r="F91" t="n">
-        <v>1.774404980776798e-10</v>
+        <v>0.0001605078688814205</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0006734074695677461</v>
+        <v>0.0001896734912319902</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0007827233302175743</v>
+        <v>3.218859563628705e-07</v>
       </c>
       <c r="I91" t="n">
-        <v>8.159152817902898e-05</v>
+        <v>6.597319448983655e-06</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9335229374432727</v>
+        <v>0.007313262970700219</v>
       </c>
       <c r="K91" t="n">
-        <v>1.531048911183395e-07</v>
+        <v>7.103783567392121e-11</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9335229374432727</v>
+        <v>0.9922021723969796</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT62468.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0001194581393884283</v>
+        <v>0.0001506335057767456</v>
       </c>
       <c r="C92" t="n">
-        <v>2.204841584234896e-05</v>
+        <v>8.04363292651129e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01915455725952639</v>
+        <v>0.01723608526930832</v>
       </c>
       <c r="E92" t="n">
-        <v>2.220072377399247e-14</v>
+        <v>2.220009087066862e-14</v>
       </c>
       <c r="F92" t="n">
-        <v>3.832388316635386e-11</v>
+        <v>3.548934667845628e-08</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0001956351960047706</v>
+        <v>0.0002031787403623134</v>
       </c>
       <c r="H92" t="n">
-        <v>0.001977280596971928</v>
+        <v>8.543036562543898e-05</v>
       </c>
       <c r="I92" t="n">
-        <v>5.122720962639579e-06</v>
+        <v>4.049901356366439e-06</v>
       </c>
       <c r="J92" t="n">
-        <v>0.9785258839172649</v>
+        <v>0.9823125375959175</v>
       </c>
       <c r="K92" t="n">
-        <v>1.371569263470408e-08</v>
+        <v>5.499357954985318e-09</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9785258839172649</v>
+        <v>0.9823125375959175</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -5059,41 +5059,41 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT6615.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001046875088366407</v>
+        <v>0.0001868029818340695</v>
       </c>
       <c r="C93" t="n">
-        <v>6.939716212911318e-05</v>
+        <v>9.130259696654774e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.009841937949981023</v>
+        <v>0.0121719416153939</v>
       </c>
       <c r="E93" t="n">
-        <v>8.468030822772284e-14</v>
+        <v>2.220011738618632e-14</v>
       </c>
       <c r="F93" t="n">
-        <v>1.88955388110393e-08</v>
+        <v>3.743974693910847e-11</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0008499455731990337</v>
+        <v>0.0001770028385798368</v>
       </c>
       <c r="H93" t="n">
-        <v>0.001922318630295977</v>
+        <v>0.0004519878349330794</v>
       </c>
       <c r="I93" t="n">
-        <v>2.587019746072151e-05</v>
+        <v>9.888425514370449e-06</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9862435009261645</v>
+        <v>0.986993147450983</v>
       </c>
       <c r="K93" t="n">
-        <v>1.355767798226862e-07</v>
+        <v>9.855560317378186e-08</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9862435009261645</v>
+        <v>0.986993147450983</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -5109,191 +5109,191 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43227.fa</t>
+          <t>even_MAG-GUT66915.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001805401156209618</v>
+        <v>0.001698467152956628</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0004601160830861796</v>
+        <v>7.802102342355126e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.004103346784026207</v>
+        <v>0.0002840785067784581</v>
       </c>
       <c r="E94" t="n">
-        <v>4.879582299643521e-14</v>
+        <v>2.220116577342552e-14</v>
       </c>
       <c r="F94" t="n">
-        <v>4.879582299643803e-14</v>
+        <v>2.220116577342552e-14</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0001399000119640071</v>
+        <v>0.000153913032711041</v>
       </c>
       <c r="H94" t="n">
-        <v>0.009925475371871927</v>
+        <v>0.9956430659896184</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0003714039207063305</v>
+        <v>4.490320938833662e-07</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9831866223965228</v>
+        <v>0.002140973925034152</v>
       </c>
       <c r="K94" t="n">
-        <v>7.734275515305902e-06</v>
+        <v>1.031337339588961e-06</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9831866223965228</v>
+        <v>0.9956430659896184</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT6727.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0007013323116563457</v>
+        <v>0.0004768207220550271</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0002017992258225181</v>
+        <v>2.630967205819438e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>1.373057029270012e-06</v>
+        <v>0.01171438307777598</v>
       </c>
       <c r="E95" t="n">
-        <v>2.219569233568879e-14</v>
+        <v>4.366260424124748e-14</v>
       </c>
       <c r="F95" t="n">
-        <v>2.219569233568879e-14</v>
+        <v>5.529392546396654e-11</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0001235839462679963</v>
+        <v>0.0008327688708245767</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9635893732010707</v>
+        <v>0.002507597258459201</v>
       </c>
       <c r="I95" t="n">
-        <v>8.48765630801738e-07</v>
+        <v>3.301693358951866e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03538141448952335</v>
+        <v>0.9844089405345555</v>
       </c>
       <c r="K95" t="n">
-        <v>2.750029546945413e-07</v>
+        <v>1.628753443908917e-07</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9635893732010707</v>
+        <v>0.9844089405345555</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44433.fa</t>
+          <t>even_MAG-GUT6753.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.000952087463267637</v>
+        <v>0.001530703993377021</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9814251435241913</v>
+        <v>0.0004202131281261002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0009766237216263232</v>
+        <v>0.00130981518704548</v>
       </c>
       <c r="E96" t="n">
-        <v>2.22000487786307e-14</v>
+        <v>3.41418547639336e-14</v>
       </c>
       <c r="F96" t="n">
-        <v>1.021625904190029e-11</v>
+        <v>3.414185476395739e-14</v>
       </c>
       <c r="G96" t="n">
-        <v>0.003702761346900549</v>
+        <v>0.0004497304896461292</v>
       </c>
       <c r="H96" t="n">
-        <v>1.089996502652955e-07</v>
+        <v>0.9917367912570134</v>
       </c>
       <c r="I96" t="n">
-        <v>3.975897456986254e-07</v>
+        <v>1.66896073107784e-06</v>
       </c>
       <c r="J96" t="n">
-        <v>2.83590818199888e-06</v>
+        <v>0.004549313128377932</v>
       </c>
       <c r="K96" t="n">
-        <v>0.01294004143619759</v>
+        <v>1.763855614524812e-06</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9814251435241913</v>
+        <v>0.9917367912570134</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT67531.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.001586304492651886</v>
+        <v>0.0002467047435581516</v>
       </c>
       <c r="C97" t="n">
-        <v>3.80117534995928e-05</v>
+        <v>5.323750269880256e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07973884818777163</v>
+        <v>0.001116819231003526</v>
       </c>
       <c r="E97" t="n">
-        <v>2.702545034704073e-13</v>
+        <v>2.220209955344813e-14</v>
       </c>
       <c r="F97" t="n">
-        <v>1.703510612885939e-06</v>
+        <v>1.837919124508672e-11</v>
       </c>
       <c r="G97" t="n">
-        <v>0.005582857991814961</v>
+        <v>0.0002902012481421388</v>
       </c>
       <c r="H97" t="n">
-        <v>0.001748676559266647</v>
+        <v>0.001214941114271233</v>
       </c>
       <c r="I97" t="n">
-        <v>5.014852609490642e-05</v>
+        <v>8.969253313222202e-06</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9112533995996557</v>
+        <v>0.9970690582306546</v>
       </c>
       <c r="K97" t="n">
-        <v>4.937836137822344e-08</v>
+        <v>6.865795694700413e-08</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9112533995996557</v>
+        <v>0.9970690582306546</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -5309,691 +5309,691 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46496.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001887616939333706</v>
+        <v>0.002583322257736392</v>
       </c>
       <c r="C98" t="n">
-        <v>0.928014025385374</v>
+        <v>0.001341174689476223</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001175448141569654</v>
+        <v>0.005478291430244654</v>
       </c>
       <c r="E98" t="n">
-        <v>4.365632587644681e-14</v>
+        <v>5.26261178634045e-14</v>
       </c>
       <c r="F98" t="n">
-        <v>8.291703437297941e-12</v>
+        <v>5.262611786340989e-14</v>
       </c>
       <c r="G98" t="n">
-        <v>0.007825951155201929</v>
+        <v>0.0003717129147769312</v>
       </c>
       <c r="H98" t="n">
-        <v>6.528870414176667e-07</v>
+        <v>0.009974125165809158</v>
       </c>
       <c r="I98" t="n">
-        <v>2.838296696388868e-06</v>
+        <v>0.0002654864635499949</v>
       </c>
       <c r="J98" t="n">
-        <v>7.515323369847829e-06</v>
+        <v>0.9799808678086415</v>
       </c>
       <c r="K98" t="n">
-        <v>0.06108595186307775</v>
+        <v>5.019269659957869e-06</v>
       </c>
       <c r="L98" t="n">
-        <v>0.928014025385374</v>
+        <v>0.9799808678086415</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46649.fa</t>
+          <t>even_MAG-GUT68996.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.000330633098823483</v>
+        <v>0.0004656529228067456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9307537696813704</v>
+        <v>2.308039069190812e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001123013157594157</v>
+        <v>0.04288816759606454</v>
       </c>
       <c r="E99" t="n">
-        <v>2.219472144302482e-14</v>
+        <v>6.551357676661891e-14</v>
       </c>
       <c r="F99" t="n">
-        <v>1.414399361254126e-10</v>
+        <v>3.22477322699043e-11</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0008848852405277367</v>
+        <v>0.000678074091725186</v>
       </c>
       <c r="H99" t="n">
-        <v>1.20595577644749e-07</v>
+        <v>0.003171495241557516</v>
       </c>
       <c r="I99" t="n">
-        <v>6.99351106821052e-08</v>
+        <v>3.910489743279289e-05</v>
       </c>
       <c r="J99" t="n">
-        <v>2.486237715631025e-07</v>
+        <v>0.9527343078940608</v>
       </c>
       <c r="K99" t="n">
-        <v>0.06791797136759711</v>
+        <v>1.169333472899995e-07</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9307537696813704</v>
+        <v>0.9527343078940608</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001049209768331205</v>
+        <v>0.000695936042126994</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0001973291013203942</v>
+        <v>0.000131917104989076</v>
       </c>
       <c r="D100" t="n">
-        <v>4.025699201515099e-05</v>
+        <v>0.002665169475111528</v>
       </c>
       <c r="E100" t="n">
-        <v>2.220104703316328e-14</v>
+        <v>2.223011175526348e-14</v>
       </c>
       <c r="F100" t="n">
-        <v>1.414904320085996e-13</v>
+        <v>2.223011175526349e-14</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001282011929473099</v>
+        <v>0.0001256697032275705</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9923526210737167</v>
+        <v>0.01241660416914941</v>
       </c>
       <c r="I100" t="n">
-        <v>2.822992343663632e-07</v>
+        <v>0.0001189944498587965</v>
       </c>
       <c r="J100" t="n">
-        <v>0.006231708621555197</v>
+        <v>0.9838451628810293</v>
       </c>
       <c r="K100" t="n">
-        <v>3.909507159449553e-07</v>
+        <v>5.461744629171196e-07</v>
       </c>
       <c r="L100" t="n">
-        <v>0.9923526210737167</v>
+        <v>0.9838451628810293</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48926.fa</t>
+          <t>even_MAG-GUT7016.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.001251029185444774</v>
+        <v>6.525626465612476e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9921785701908489</v>
+        <v>7.302683221839972e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0007216888036955032</v>
+        <v>0.03377230475667416</v>
       </c>
       <c r="E101" t="n">
-        <v>2.513929376560698e-14</v>
+        <v>2.22002385418204e-14</v>
       </c>
       <c r="F101" t="n">
-        <v>3.293126536444989e-12</v>
+        <v>4.528775897222871e-07</v>
       </c>
       <c r="G101" t="n">
-        <v>0.004436178321438035</v>
+        <v>0.0002762052547183427</v>
       </c>
       <c r="H101" t="n">
-        <v>3.718955751839499e-07</v>
+        <v>3.313710662383701e-06</v>
       </c>
       <c r="I101" t="n">
-        <v>3.079929202164437e-07</v>
+        <v>1.928161964662511e-05</v>
       </c>
       <c r="J101" t="n">
-        <v>1.351847884630647e-05</v>
+        <v>0.9658624539187577</v>
       </c>
       <c r="K101" t="n">
-        <v>0.001398335127912932</v>
+        <v>1.328950462135532e-09</v>
       </c>
       <c r="L101" t="n">
-        <v>0.9921785701908489</v>
+        <v>0.9658624539187577</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49076.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0007708097975145011</v>
+        <v>0.0008773707496957563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9648982990597424</v>
+        <v>2.30525884977584e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0006507599666288042</v>
+        <v>0.0831892908385108</v>
       </c>
       <c r="E102" t="n">
-        <v>2.22012575819027e-14</v>
+        <v>4.911117500257962e-14</v>
       </c>
       <c r="F102" t="n">
-        <v>9.316165982964682e-12</v>
+        <v>1.472441006160749e-12</v>
       </c>
       <c r="G102" t="n">
-        <v>0.002748608998931464</v>
+        <v>0.0005460115318724804</v>
       </c>
       <c r="H102" t="n">
-        <v>8.201440176789275e-08</v>
+        <v>0.001656763140252247</v>
       </c>
       <c r="I102" t="n">
-        <v>7.219520585564998e-07</v>
+        <v>0.0002195366033904402</v>
       </c>
       <c r="J102" t="n">
-        <v>2.720143924370868e-06</v>
+        <v>0.9134850426712122</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0309279980574596</v>
+        <v>2.931875046773462e-06</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9648982990597424</v>
+        <v>0.9134850426712122</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49107.fa</t>
+          <t>even_MAG-GUT73967.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0009419960609193196</v>
+        <v>0.0008223644855946785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9871211667997336</v>
+        <v>0.0002009549447235475</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001127745871991287</v>
+        <v>0.0001003687760315434</v>
       </c>
       <c r="E103" t="n">
-        <v>2.220375018581339e-14</v>
+        <v>2.220064108583154e-14</v>
       </c>
       <c r="F103" t="n">
-        <v>1.400794466215836e-11</v>
+        <v>2.220064108583154e-14</v>
       </c>
       <c r="G103" t="n">
-        <v>0.005962819716862257</v>
+        <v>6.542140365128176e-05</v>
       </c>
       <c r="H103" t="n">
-        <v>1.142596885451155e-07</v>
+        <v>0.9877920264579028</v>
       </c>
       <c r="I103" t="n">
-        <v>4.860091566147424e-07</v>
+        <v>8.528975658705527e-07</v>
       </c>
       <c r="J103" t="n">
-        <v>4.800512394532313e-06</v>
+        <v>0.0110172434440181</v>
       </c>
       <c r="K103" t="n">
-        <v>0.004840870755223544</v>
+        <v>7.675904677898437e-07</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9871211667997336</v>
+        <v>0.9877920264579028</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49445.fa</t>
+          <t>even_MAG-GUT74311.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.002448040681564633</v>
+        <v>0.000127792484860241</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9881977871211234</v>
+        <v>3.179330621078596e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>0.001274667410714787</v>
+        <v>0.01295065255958503</v>
       </c>
       <c r="E104" t="n">
-        <v>3.640938413923977e-14</v>
+        <v>2.654527404456007e-14</v>
       </c>
       <c r="F104" t="n">
-        <v>6.491111833321798e-12</v>
+        <v>1.757101105672796e-08</v>
       </c>
       <c r="G104" t="n">
-        <v>0.004006345279474806</v>
+        <v>0.000311604439228889</v>
       </c>
       <c r="H104" t="n">
-        <v>6.428102616521795e-07</v>
+        <v>6.083002630033493e-05</v>
       </c>
       <c r="I104" t="n">
-        <v>9.070938537885261e-07</v>
+        <v>1.278380739101467e-05</v>
       </c>
       <c r="J104" t="n">
-        <v>2.495829071558287e-05</v>
+        <v>0.9865331223864511</v>
       </c>
       <c r="K104" t="n">
-        <v>0.004046651305763801</v>
+        <v>1.739452475336687e-08</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9881977871211234</v>
+        <v>0.9865331223864511</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>g__CAG-521</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5085.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0001821292943728271</v>
+        <v>0.00108785164863647</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25777134474127e-06</v>
+        <v>0.0001347403020358433</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9979029783862583</v>
+        <v>1.28754317840914e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>2.22012350060122e-14</v>
+        <v>2.220070242590819e-14</v>
       </c>
       <c r="F105" t="n">
-        <v>7.644040408305574e-10</v>
+        <v>2.220070242590819e-14</v>
       </c>
       <c r="G105" t="n">
-        <v>0.001039222332221376</v>
+        <v>0.0001851904053223043</v>
       </c>
       <c r="H105" t="n">
-        <v>1.073355057247016e-07</v>
+        <v>0.9864198713355669</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0002346160583441073</v>
+        <v>1.566822080277034e-06</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0006396125774872196</v>
+        <v>0.01215695406138121</v>
       </c>
       <c r="K105" t="n">
-        <v>7.54800394200199e-08</v>
+        <v>9.499931484523637e-07</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9979029783862583</v>
+        <v>0.9864198713355669</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>g__Duodenibacillus</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>g__Duodenibacillus</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT75788.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0004513513049217102</v>
+        <v>0.0001027722805588353</v>
       </c>
       <c r="C106" t="n">
-        <v>7.957280644166603e-05</v>
+        <v>1.02621116561585e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004678893355093956</v>
+        <v>0.9982856090922742</v>
       </c>
       <c r="E106" t="n">
-        <v>2.469006779844491e-14</v>
+        <v>2.22025385406056e-14</v>
       </c>
       <c r="F106" t="n">
-        <v>2.469006779846188e-14</v>
+        <v>8.071708943616656e-10</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001291724369680594</v>
+        <v>0.0006299290298890285</v>
       </c>
       <c r="H106" t="n">
-        <v>0.001970250350735193</v>
+        <v>2.577681327796826e-07</v>
       </c>
       <c r="I106" t="n">
-        <v>6.873097314089155e-05</v>
+        <v>1.871906433878353e-05</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9926214975329846</v>
+        <v>0.0009616722340999987</v>
       </c>
       <c r="K106" t="n">
-        <v>5.312396646209718e-07</v>
+        <v>1.351234799703147e-08</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9926214975329846</v>
+        <v>0.9982856090922742</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT75820.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0002081461274617463</v>
+        <v>0.0001621809716376666</v>
       </c>
       <c r="C107" t="n">
-        <v>7.76681390838939e-06</v>
+        <v>5.749582079243622e-07</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01602480319544087</v>
+        <v>0.9977815211046528</v>
       </c>
       <c r="E107" t="n">
-        <v>2.222925599833277e-14</v>
+        <v>2.22006203248531e-14</v>
       </c>
       <c r="F107" t="n">
-        <v>8.500579207495445e-12</v>
+        <v>6.652148247991796e-09</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001821365753771382</v>
+        <v>0.0006524313158623853</v>
       </c>
       <c r="H107" t="n">
-        <v>0.000881550720527811</v>
+        <v>1.33859036104403e-07</v>
       </c>
       <c r="I107" t="n">
-        <v>2.40577694670145e-05</v>
+        <v>2.748367424777907e-05</v>
       </c>
       <c r="J107" t="n">
-        <v>0.982671425700121</v>
+        <v>0.001375650975857616</v>
       </c>
       <c r="K107" t="n">
-        <v>1.130891731841557e-07</v>
+        <v>1.648832719487247e-08</v>
       </c>
       <c r="L107" t="n">
-        <v>0.982671425700121</v>
+        <v>0.9977815211046528</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT75834.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0001946674330623091</v>
+        <v>0.0003502572884807869</v>
       </c>
       <c r="C108" t="n">
-        <v>4.471977735535233e-06</v>
+        <v>2.686707133485709e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07873920254138564</v>
+        <v>0.9976432821986257</v>
       </c>
       <c r="E108" t="n">
-        <v>2.550578275744993e-14</v>
+        <v>2.220038783623728e-14</v>
       </c>
       <c r="F108" t="n">
-        <v>5.651153924906927e-11</v>
+        <v>9.378112066185009e-08</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0003695200114508424</v>
+        <v>0.0005932378516594542</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0004116644740561948</v>
+        <v>2.655817611856664e-06</v>
       </c>
       <c r="I108" t="n">
-        <v>1.808230817428351e-05</v>
+        <v>3.01097176901389e-06</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9202623481529363</v>
+        <v>0.001404765446331632</v>
       </c>
       <c r="K108" t="n">
-        <v>4.304466182275058e-08</v>
+        <v>9.937245214668464e-09</v>
       </c>
       <c r="L108" t="n">
-        <v>0.9202623481529363</v>
+        <v>0.9976432821986257</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT77563.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0003868924197606596</v>
+        <v>0.001345338473411843</v>
       </c>
       <c r="C109" t="n">
-        <v>8.053506029851648e-06</v>
+        <v>0.0003948947982601396</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01171015591712731</v>
+        <v>1.889036343441491e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>2.757118643305443e-14</v>
+        <v>2.220153252721164e-14</v>
       </c>
       <c r="F109" t="n">
-        <v>1.051877716726076e-11</v>
+        <v>2.220153252721164e-14</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001788261069696422</v>
+        <v>0.0001014952309108926</v>
       </c>
       <c r="H109" t="n">
-        <v>0.004840404592143217</v>
+        <v>0.9941339146071684</v>
       </c>
       <c r="I109" t="n">
-        <v>7.868467568443471e-05</v>
+        <v>8.195276810386734e-07</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9827967505217555</v>
+        <v>0.00400159958131273</v>
       </c>
       <c r="K109" t="n">
-        <v>2.322499830058035e-07</v>
+        <v>3.047417776424887e-06</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9827967505217555</v>
+        <v>0.9941339146071684</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57726.fa</t>
+          <t>even_MAG-GUT78371.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>7.778283246166332e-05</v>
+        <v>0.000281969597969843</v>
       </c>
       <c r="C110" t="n">
-        <v>1.674399989467641e-06</v>
+        <v>5.577059598002592e-07</v>
       </c>
       <c r="D110" t="n">
-        <v>9.823164356857962e-08</v>
+        <v>0.9983383350304228</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9936528247841339</v>
+        <v>2.220180090139906e-14</v>
       </c>
       <c r="F110" t="n">
-        <v>7.972440820762018e-06</v>
+        <v>6.573675254557723e-08</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0002219533076552831</v>
+        <v>0.0004126308729042775</v>
       </c>
       <c r="H110" t="n">
-        <v>6.778756796980888e-09</v>
+        <v>1.132290337876009e-06</v>
       </c>
       <c r="I110" t="n">
-        <v>6.444914773670433e-05</v>
+        <v>1.298760458390857e-05</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005973238061430374</v>
+        <v>0.0009523066994197367</v>
       </c>
       <c r="K110" t="n">
-        <v>1.537172184273732e-11</v>
+        <v>1.446162673015184e-08</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9936528247841339</v>
+        <v>0.9983383350304228</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Duodenibacillus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0003196490123632619</v>
+        <v>0.005881458400822321</v>
       </c>
       <c r="C111" t="n">
-        <v>4.919651119138317e-06</v>
+        <v>8.169066665924282e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01475647072589956</v>
+        <v>0.1849136329142813</v>
       </c>
       <c r="E111" t="n">
-        <v>4.675269016703257e-14</v>
+        <v>1.179057358337689e-12</v>
       </c>
       <c r="F111" t="n">
-        <v>2.460916718869739e-08</v>
+        <v>0.001341531947828422</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0004900442433436421</v>
+        <v>0.009615294480348705</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0001148148246087736</v>
+        <v>0.0003762807316962686</v>
       </c>
       <c r="I111" t="n">
-        <v>6.859156296335172e-05</v>
+        <v>0.001890654460833275</v>
       </c>
       <c r="J111" t="n">
-        <v>0.984245407138625</v>
+        <v>0.7959728931808749</v>
       </c>
       <c r="K111" t="n">
-        <v>7.823186339440878e-08</v>
+        <v>8.481546986198397e-08</v>
       </c>
       <c r="L111" t="n">
-        <v>0.984245407138625</v>
+        <v>0.7959728931808749</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -6009,291 +6009,291 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58214.fa</t>
+          <t>even_MAG-GUT80449.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.000106443510744617</v>
+        <v>0.0007042178471101474</v>
       </c>
       <c r="C112" t="n">
-        <v>4.99508363845457e-06</v>
+        <v>0.0001494907163932111</v>
       </c>
       <c r="D112" t="n">
-        <v>4.037348932208566e-07</v>
+        <v>7.355374065388442e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9958019563168807</v>
+        <v>2.220064234588759e-14</v>
       </c>
       <c r="F112" t="n">
-        <v>3.655847526817874e-08</v>
+        <v>2.220064234588759e-14</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0008854767799730299</v>
+        <v>0.0001262770473271793</v>
       </c>
       <c r="H112" t="n">
-        <v>6.046057704241114e-08</v>
+        <v>0.9904492087013199</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0003294149037762065</v>
+        <v>5.018077042196347e-07</v>
       </c>
       <c r="J112" t="n">
-        <v>0.002871211204799944</v>
+        <v>0.008496479606475451</v>
       </c>
       <c r="K112" t="n">
-        <v>1.44624162831281e-09</v>
+        <v>2.705329714978232e-07</v>
       </c>
       <c r="L112" t="n">
-        <v>0.9958019563168807</v>
+        <v>0.9904492087013199</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0008627175272870916</v>
+        <v>0.01530031077776076</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0001356703877197737</v>
+        <v>0.0001897316756146401</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0002156381134899572</v>
+        <v>0.03314520113002675</v>
       </c>
       <c r="E113" t="n">
-        <v>2.220063746860198e-14</v>
+        <v>2.072842516794632e-13</v>
       </c>
       <c r="F113" t="n">
-        <v>2.220063746860198e-14</v>
+        <v>0.03894748685148626</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001166821938111579</v>
+        <v>0.0006073754800312081</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9859720587493275</v>
+        <v>2.591524860544544e-06</v>
       </c>
       <c r="I113" t="n">
-        <v>5.172458734116263e-07</v>
+        <v>1.344067542378172e-06</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0126965353782206</v>
+        <v>0.9118059584922629</v>
       </c>
       <c r="K113" t="n">
-        <v>1.804042262717118e-07</v>
+        <v>2.072842516794745e-13</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9859720587493275</v>
+        <v>0.9118059584922629</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>g__Parasutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61409.fa</t>
+          <t>even_MAG-GUT80804.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0001397054399521151</v>
+        <v>0.0002437142700722951</v>
       </c>
       <c r="C114" t="n">
-        <v>6.25024392038968e-06</v>
+        <v>2.388255105680736e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>5.848781446253796e-07</v>
+        <v>0.04003881205237338</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9965371392841447</v>
+        <v>2.220029337864308e-14</v>
       </c>
       <c r="F114" t="n">
-        <v>1.101615790386718e-08</v>
+        <v>2.474248524315572e-11</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0009274442124381374</v>
+        <v>0.0002288324724210655</v>
       </c>
       <c r="H114" t="n">
-        <v>2.114142656710969e-07</v>
+        <v>8.396073925911761e-05</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0002713064902721181</v>
+        <v>0.0001504443369705726</v>
       </c>
       <c r="J114" t="n">
-        <v>0.002117343729104116</v>
+        <v>0.959251643456296</v>
       </c>
       <c r="K114" t="n">
-        <v>3.291600341918452e-09</v>
+        <v>2.043927371176848e-07</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9965371392841447</v>
+        <v>0.959251643456296</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61637.fa</t>
+          <t>even_MAG-GUT81145.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.003235406399231954</v>
+        <v>0.0002342276235809427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.000830770128689343</v>
+        <v>2.441672901841276e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007519281698451432</v>
+        <v>2.65500465540048e-07</v>
       </c>
       <c r="E115" t="n">
-        <v>7.423751163046678e-14</v>
+        <v>0.9944071353751976</v>
       </c>
       <c r="F115" t="n">
-        <v>7.423751163047408e-14</v>
+        <v>8.501957134878283e-05</v>
       </c>
       <c r="G115" t="n">
-        <v>0.000355438724673495</v>
+        <v>0.0004351330917218887</v>
       </c>
       <c r="H115" t="n">
-        <v>0.01117363644393802</v>
+        <v>2.987407658826931e-06</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0002796455273949055</v>
+        <v>9.120878675635982e-07</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9765985299335513</v>
+        <v>0.004809902490051849</v>
       </c>
       <c r="K115" t="n">
-        <v>7.291143921153924e-06</v>
+        <v>1.23088603327816e-10</v>
       </c>
       <c r="L115" t="n">
-        <v>0.9765985299335513</v>
+        <v>0.9944071353751976</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Mesosutterella</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61735.fa</t>
+          <t>even_MAG-GUT81204.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8.767781926965425e-05</v>
+        <v>0.002229738079847126</v>
       </c>
       <c r="C116" t="n">
-        <v>3.156660834506177e-06</v>
+        <v>7.815144303200903e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>3.470435051034338e-08</v>
+        <v>0.04429448970128341</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9817922450786796</v>
+        <v>1.056408201159885e-13</v>
       </c>
       <c r="F116" t="n">
-        <v>2.835209730725866e-05</v>
+        <v>5.498419160792588e-12</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001641653214235359</v>
+        <v>0.0008665052949479143</v>
       </c>
       <c r="H116" t="n">
-        <v>2.516790775776832e-07</v>
+        <v>0.004722187649040858</v>
       </c>
       <c r="I116" t="n">
-        <v>1.250162148073028e-05</v>
+        <v>0.0004360495048760979</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0179116148905696</v>
+        <v>0.9473651573167048</v>
       </c>
       <c r="K116" t="n">
-        <v>1.270071944711652e-10</v>
+        <v>7.721004663792882e-06</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9817922450786796</v>
+        <v>0.9473651573167048</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Sutterella</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT82115.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7.447709317580304e-05</v>
+        <v>0.0003078158027000921</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5532064286978e-05</v>
+        <v>9.766295637824481e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02257496754811186</v>
+        <v>0.005883878209375518</v>
       </c>
       <c r="E117" t="n">
-        <v>2.219860255256576e-14</v>
+        <v>6.333805829622742e-14</v>
       </c>
       <c r="F117" t="n">
-        <v>6.818564957232739e-14</v>
+        <v>1.699739722127998e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>8.490424094675417e-05</v>
+        <v>0.0007270109991357826</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0001730086590801877</v>
+        <v>0.0001272172669615692</v>
       </c>
       <c r="I117" t="n">
-        <v>1.423310865968523e-05</v>
+        <v>5.523709508615358e-05</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9770627116540676</v>
+        <v>0.9928890212054823</v>
       </c>
       <c r="K117" t="n">
-        <v>1.656315807416072e-07</v>
+        <v>3.612816026975663e-08</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9770627116540676</v>
+        <v>0.9928890212054823</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -6309,1900 +6309,100 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT83592.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0001774390647471885</v>
+        <v>0.003423127761440714</v>
       </c>
       <c r="C118" t="n">
-        <v>2.875231017401581e-06</v>
+        <v>0.0003982333691389659</v>
       </c>
       <c r="D118" t="n">
-        <v>0.03389118944931944</v>
+        <v>0.001781357323437946</v>
       </c>
       <c r="E118" t="n">
-        <v>2.220615486907054e-14</v>
+        <v>2.220112316114033e-14</v>
       </c>
       <c r="F118" t="n">
-        <v>1.545137895199375e-11</v>
+        <v>5.03154322281376e-12</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0001971784197547011</v>
+        <v>0.0005754862484972455</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0006443357976035441</v>
+        <v>0.99245935974028</v>
       </c>
       <c r="I118" t="n">
-        <v>5.177755364417833e-05</v>
+        <v>1.342919474394439e-06</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9650350747303887</v>
+        <v>0.001353145758553623</v>
       </c>
       <c r="K118" t="n">
-        <v>1.297380511794189e-07</v>
+        <v>7.946874123531645e-06</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9650350747303887</v>
+        <v>0.99245935974028</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>g__Sutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT84859.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0001244303388007082</v>
+        <v>0.004156505938062494</v>
       </c>
       <c r="C119" t="n">
-        <v>2.953756544992902e-06</v>
+        <v>0.0003773013434895832</v>
       </c>
       <c r="D119" t="n">
-        <v>7.99004177788087e-08</v>
+        <v>0.0004617073832777552</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9922021723969796</v>
+        <v>2.220080251872398e-14</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001605078688814205</v>
+        <v>2.220080251872398e-14</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001896734912319902</v>
+        <v>0.000287840699609888</v>
       </c>
       <c r="H119" t="n">
-        <v>3.218859563628705e-07</v>
+        <v>0.9944413179537022</v>
       </c>
       <c r="I119" t="n">
-        <v>6.597319448983655e-06</v>
+        <v>3.840672751430412e-06</v>
       </c>
       <c r="J119" t="n">
-        <v>0.007313262970700219</v>
+        <v>0.0002158580630417633</v>
       </c>
       <c r="K119" t="n">
-        <v>7.103783567392121e-11</v>
+        <v>5.56279460205536e-05</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9922021723969796</v>
+        <v>0.9944413179537022</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62468.fa</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.0001506335057767456</v>
-      </c>
-      <c r="C120" t="n">
-        <v>8.04363292651129e-06</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.01723608526930832</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.220009087066862e-14</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3.548934667845628e-08</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0002031787403623134</v>
-      </c>
-      <c r="H120" t="n">
-        <v>8.543036562543898e-05</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.049901356366439e-06</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.9823125375959175</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.499357954985318e-09</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.9823125375959175</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6615.fa</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0001868029818340695</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9.130259696654774e-06</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.0121719416153939</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.220011738618632e-14</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3.743974693910847e-11</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0001770028385798368</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.0004519878349330794</v>
-      </c>
-      <c r="I121" t="n">
-        <v>9.888425514370449e-06</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.986993147450983</v>
-      </c>
-      <c r="K121" t="n">
-        <v>9.855560317378186e-08</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.986993147450983</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66915.fa</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.001698467152956628</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.802102342355126e-05</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.0002840785067784581</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.220116577342552e-14</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2.220116577342552e-14</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.000153913032711041</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.9956430659896184</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4.490320938833662e-07</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.002140973925034152</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1.031337339588961e-06</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.9956430659896184</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6727.fa</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0004768207220550271</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.630967205819438e-05</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.01171438307777598</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.366260424124748e-14</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5.529392546396654e-11</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0008327688708245767</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.002507597258459201</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.301693358951866e-05</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.9844089405345555</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1.628753443908917e-07</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.9844089405345555</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6753.fa</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.001530703993377021</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0004202131281261002</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.00130981518704548</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3.41418547639336e-14</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3.414185476395739e-14</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0004497304896461292</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.9917367912570134</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1.66896073107784e-06</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.004549313128377932</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.763855614524812e-06</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.9917367912570134</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT67531.fa</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.0002467047435581516</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.323750269880256e-05</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.001116819231003526</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.220209955344813e-14</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1.837919124508672e-11</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0002902012481421388</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.001214941114271233</v>
-      </c>
-      <c r="I125" t="n">
-        <v>8.969253313222202e-06</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.9970690582306546</v>
-      </c>
-      <c r="K125" t="n">
-        <v>6.865795694700413e-08</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.9970690582306546</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6784.fa</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.002583322257736392</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.001341174689476223</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.005478291430244654</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.26261178634045e-14</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5.262611786340989e-14</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0003717129147769312</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.009974125165809158</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.0002654864635499949</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.9799808678086415</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.019269659957869e-06</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.9799808678086415</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68537.fa</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.008403931539787449</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.943402306199403</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.00847899741503959</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.17156648931258e-13</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1.816453811650591e-11</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.01310350162120234</v>
-      </c>
-      <c r="H127" t="n">
-        <v>4.569837766804591e-06</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.779770443902723e-06</v>
-      </c>
-      <c r="J127" t="n">
-        <v>6.234916742962199e-05</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02653756443064561</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.943402306199403</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68996.fa</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.0004656529228067456</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.308039069190812e-05</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.04288816759606454</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.551357676661891e-14</v>
-      </c>
-      <c r="F128" t="n">
-        <v>3.22477322699043e-11</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.000678074091725186</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.003171495241557516</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.910489743279289e-05</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.9527343078940608</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1.169333472899995e-07</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.9527343078940608</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69662.fa</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.000695936042126994</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.000131917104989076</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.002665169475111528</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.223011175526348e-14</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2.223011175526349e-14</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0001256697032275705</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.01241660416914941</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.0001189944498587965</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.9838451628810293</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5.461744629171196e-07</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.9838451628810293</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7016.fa</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>6.525626465612476e-05</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.302683221839972e-07</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.03377230475667416</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.22002385418204e-14</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4.528775897222871e-07</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0002762052547183427</v>
-      </c>
-      <c r="H130" t="n">
-        <v>3.313710662383701e-06</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.928161964662511e-05</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.9658624539187577</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1.328950462135532e-09</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.9658624539187577</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7042.fa</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0008773707496957563</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.30525884977584e-05</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.0831892908385108</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.911117500257962e-14</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.472441006160749e-12</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0005460115318724804</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.001656763140252247</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.0002195366033904402</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.9134850426712122</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2.931875046773462e-06</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.9134850426712122</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73967.fa</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.0008223644855946785</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.0002009549447235475</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0001003687760315434</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.220064108583154e-14</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2.220064108583154e-14</v>
-      </c>
-      <c r="G132" t="n">
-        <v>6.542140365128176e-05</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.9877920264579028</v>
-      </c>
-      <c r="I132" t="n">
-        <v>8.528975658705527e-07</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.0110172434440181</v>
-      </c>
-      <c r="K132" t="n">
-        <v>7.675904677898437e-07</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.9877920264579028</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74311.fa</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.000127792484860241</v>
-      </c>
-      <c r="C133" t="n">
-        <v>3.179330621078596e-06</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.01295065255958503</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.654527404456007e-14</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.757101105672796e-08</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.000311604439228889</v>
-      </c>
-      <c r="H133" t="n">
-        <v>6.083002630033493e-05</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.278380739101467e-05</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.9865331223864511</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1.739452475336687e-08</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.9865331223864511</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75471.fa</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.00108785164863647</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0001347403020358433</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.28754317840914e-05</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.220070242590819e-14</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2.220070242590819e-14</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0001851904053223043</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.9864198713355669</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1.566822080277034e-06</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.01215695406138121</v>
-      </c>
-      <c r="K134" t="n">
-        <v>9.499931484523637e-07</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.9864198713355669</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75788.fa</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.0001027722805588353</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.02621116561585e-06</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.9982856090922742</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.22025385406056e-14</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8.071708943616656e-10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0006299290298890285</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2.577681327796826e-07</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1.871906433878353e-05</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0009616722340999987</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1.351234799703147e-08</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.9982856090922742</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75820.fa</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.0001621809716376666</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.749582079243622e-07</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.9977815211046528</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.22006203248531e-14</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6.652148247991796e-09</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0006524313158623853</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1.33859036104403e-07</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.748367424777907e-05</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.001375650975857616</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.648832719487247e-08</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.9977815211046528</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT75834.fa</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.0003502572884807869</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.686707133485709e-06</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.9976432821986257</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.220038783623728e-14</v>
-      </c>
-      <c r="F137" t="n">
-        <v>9.378112066185009e-08</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0005932378516594542</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2.655817611856664e-06</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.01097176901389e-06</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.001404765446331632</v>
-      </c>
-      <c r="K137" t="n">
-        <v>9.937245214668464e-09</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.9976432821986257</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77563.fa</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.001345338473411843</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0003948947982601396</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.889036343441491e-05</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.220153252721164e-14</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.220153252721164e-14</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0001014952309108926</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.9941339146071684</v>
-      </c>
-      <c r="I138" t="n">
-        <v>8.195276810386734e-07</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.00400159958131273</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3.047417776424887e-06</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.9941339146071684</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78371.fa</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.000281969597969843</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5.577059598002592e-07</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.9983383350304228</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.220180090139906e-14</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6.573675254557723e-08</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0004126308729042775</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1.132290337876009e-06</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.298760458390857e-05</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0009523066994197367</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1.446162673015184e-08</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.9983383350304228</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>g__Duodenibacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80384.fa</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.005881458400822321</v>
-      </c>
-      <c r="C140" t="n">
-        <v>8.169066665924282e-06</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.1849136329142813</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.179057358337689e-12</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.001341531947828422</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.009615294480348705</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0003762807316962686</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.001890654460833275</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.7959728931808749</v>
-      </c>
-      <c r="K140" t="n">
-        <v>8.481546986198397e-08</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.7959728931808749</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80449.fa</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.0007042178471101474</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0001494907163932111</v>
-      </c>
-      <c r="D141" t="n">
-        <v>7.355374065388442e-05</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.220064234588759e-14</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.220064234588759e-14</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0001262770473271793</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.9904492087013199</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5.018077042196347e-07</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.008496479606475451</v>
-      </c>
-      <c r="K141" t="n">
-        <v>2.705329714978232e-07</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.9904492087013199</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80685.fa</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.0005716546489318656</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.9648692035730628</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0002036474258466337</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2.220037731272289e-14</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1.37851397519654e-11</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.001369392403634174</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.298487073254447e-07</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.47537192189373e-07</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4.909325133373893e-07</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.03298533361630433</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.9648692035730628</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80720.fa</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.01530031077776076</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0001897316756146401</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.03314520113002675</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2.072842516794632e-13</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.03894748685148626</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0006073754800312081</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2.591524860544544e-06</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.344067542378172e-06</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.9118059584922629</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2.072842516794745e-13</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.9118059584922629</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80804.fa</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.0002437142700722951</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.388255105680736e-06</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.04003881205237338</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.220029337864308e-14</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2.474248524315572e-11</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0002288324724210655</v>
-      </c>
-      <c r="H144" t="n">
-        <v>8.396073925911761e-05</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0001504443369705726</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.959251643456296</v>
-      </c>
-      <c r="K144" t="n">
-        <v>2.043927371176848e-07</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.959251643456296</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81029.fa</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.0001805772507102324</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.340666231744879e-05</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5.348725153980748e-08</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9946661112602068</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0004068408099066669</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.000392483732838498</v>
-      </c>
-      <c r="H145" t="n">
-        <v>9.56578774798946e-07</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1.465994672509044e-06</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.004338104188271012</v>
-      </c>
-      <c r="K145" t="n">
-        <v>3.505069072740831e-11</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.9946661112602068</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81145.fa</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0002342276235809427</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.441672901841276e-05</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.65500465540048e-07</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.9944071353751976</v>
-      </c>
-      <c r="F146" t="n">
-        <v>8.501957134878283e-05</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0004351330917218887</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2.987407658826931e-06</v>
-      </c>
-      <c r="I146" t="n">
-        <v>9.120878675635982e-07</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.004809902490051849</v>
-      </c>
-      <c r="K146" t="n">
-        <v>1.23088603327816e-10</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.9944071353751976</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81204.fa</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.002229738079847126</v>
-      </c>
-      <c r="C147" t="n">
-        <v>7.815144303200903e-05</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.04429448970128341</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.056408201159885e-13</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5.498419160792588e-12</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0008665052949479143</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.004722187649040858</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.0004360495048760979</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.9473651573167048</v>
-      </c>
-      <c r="K147" t="n">
-        <v>7.721004663792882e-06</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.9473651573167048</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81432.fa</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.0001963972714929326</v>
-      </c>
-      <c r="C148" t="n">
-        <v>7.757424417835326e-06</v>
-      </c>
-      <c r="D148" t="n">
-        <v>4.205059963921665e-07</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.9966548807977745</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1.510717821009671e-07</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.001188676459939968</v>
-      </c>
-      <c r="H148" t="n">
-        <v>3.899379484810915e-07</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.0002500487873030036</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.001701275341220604</v>
-      </c>
-      <c r="K148" t="n">
-        <v>2.402124277127879e-09</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.9966548807977745</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81523.fa</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>9.501158645631377e-05</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9.138448424029627e-07</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.486250070903181e-08</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.9951719988655713</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1.836448666900891e-05</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.0001910219618756096</v>
-      </c>
-      <c r="H149" t="n">
-        <v>7.192543530491635e-09</v>
-      </c>
-      <c r="I149" t="n">
-        <v>8.806652152559638e-05</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.004434550669988411</v>
-      </c>
-      <c r="K149" t="n">
-        <v>8.026970294246417e-12</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.9951719988655713</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>g__Mesosutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82115.fa</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.0003078158027000921</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9.766295637824481e-06</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.005883878209375518</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.333805829622742e-14</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1.699739722127998e-08</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0007270109991357826</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.0001272172669615692</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.523709508615358e-05</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.9928890212054823</v>
-      </c>
-      <c r="K150" t="n">
-        <v>3.612816026975663e-08</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.9928890212054823</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>g__Sutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83592.fa</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.003423127761440714</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.0003982333691389659</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.001781357323437946</v>
-      </c>
-      <c r="E151" t="n">
-        <v>2.220112316114033e-14</v>
-      </c>
-      <c r="F151" t="n">
-        <v>5.03154322281376e-12</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.0005754862484972455</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.99245935974028</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.342919474394439e-06</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.001353145758553623</v>
-      </c>
-      <c r="K151" t="n">
-        <v>7.946874123531645e-06</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.99245935974028</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84859.fa</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.004156505938062494</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.0003773013434895832</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.0004617073832777552</v>
-      </c>
-      <c r="E152" t="n">
-        <v>2.220080251872398e-14</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2.220080251872398e-14</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.000287840699609888</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.9944413179537022</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.840672751430412e-06</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.0002158580630417633</v>
-      </c>
-      <c r="K152" t="n">
-        <v>5.56279460205536e-05</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.9944413179537022</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>g__Parasutterella</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90614.fa</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2.645491929287035e-05</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.9938737716973604</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.510938921510264e-06</v>
-      </c>
-      <c r="E153" t="n">
-        <v>2.220061763962077e-14</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4.184720426532871e-09</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.005441070648786996</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1.88936804075407e-06</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.175873864687606e-10</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.833961212263538e-07</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0006548147291461486</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.9938737716973604</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90675.fa</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2.624185395451983e-05</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.9951011811997725</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.907112896083713e-06</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2.22004025717578e-14</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3.392700110305011e-09</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.004412357882267143</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1.851080250206381e-06</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.093250819701344e-10</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.472031023273686e-06</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0004549853377886955</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.9951011811997725</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90995.fa</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>3.181118022364742e-05</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.9862415668034867</v>
-      </c>
-      <c r="D155" t="n">
-        <v>2.646481804776168e-06</v>
-      </c>
-      <c r="E155" t="n">
-        <v>2.220281033378261e-14</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1.777274078049031e-09</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.004107861366405377</v>
-      </c>
-      <c r="H155" t="n">
-        <v>5.438525248008522e-07</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6.470566012293726e-10</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.779070454586862e-07</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.00961528998415616</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.9862415668034867</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>g__CAG-521</t>
+          <t>g__Parasutterella</t>
         </is>
       </c>
     </row>
